--- a/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F42D97-D11F-4CFB-B6C4-FCF2F8CB19E3}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{660362A0-4958-4A35-956C-A0C6B5A73F95}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
+    <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,19 +41,25 @@
     <t>Email Applications</t>
   </si>
   <si>
-    <t>Subject: Application for Project Engineer Position - Chuang Kai Siang_x000D_
+    <t>Subject: Application for Front-End Developer/Software Intern Position - Jun-Dec 2024_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. I am writing to express my interest in the Project Engineer position at Aevice Health, as advertised on Glints.com. My name is Chuang Kai Siang, a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. The prospect of contributing to Aevice Health's groundbreaking work in respiratory care technology, coupled with my strong desire to learn from experienced engineers, particularly aligning with my father's engineering background, has fueled my enthusiasm to apply for this position._x000D_
-_x000D_
-I am excited about the opportunity to join Aevice Health and contribute my technical skills to your dynamic team. In my academic journey, I have gained proficiency in Python, utilizing libraries such as NumPy and Matplotlib for robust data visualization. Additionally, my experience in Java includes developing systems implementing CRUD operations and user management following the MVC pattern. Furthermore, I have honed my skills in C by working on embedded systems, focusing on the seamless integration of hardware and software design._x000D_
-_x000D_
-In addition to my technical abilities, I bring strong soft skills to the table. I am adept at collaborative teamwork, demonstrating active listening and effective interpersonal communication. My critical thinking and analytical skills empower me to solve problems and make informed decisions, ensuring tasks are completed with a high degree of accuracy. These qualities, combined with my dedication to learning and adapting in a fast-paced startup environment, make me confident in my ability to contribute effectively to Aevice Health's projects._x000D_
-_x000D_
-I am eager to bring my technical acumen and collaborative spirit to Aevice Health, contributing to the success of your innovative projects. The prospect of working closely with your R&amp;D team, managing projects, and supporting external partners aligns seamlessly with my career aspirations. I am committed to completing the Certified Associate Project Management (CAPM) course within the first three months of employment, further enhancing my project management skills._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the opportunity to discuss how my skills and passion for technology align with the goals of Aevice Health. I look forward to the possibility of an interview to further discuss how I can contribute to the success of your team._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I am currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Front-End Developer/Software Intern position at Aevice Health on Glints.com and am writing to express my keen interest in joining your dynamic team._x000D_
+_x000D_
+My motivation for applying stems from a strong desire to learn from experienced engineers and follow in my father's footsteps, who holds a master's in engineering. I am confident that my technical skills, coupled with my passion for innovation, make me a suitable candidate for this internship._x000D_
+_x000D_
+In terms of technical proficiency, I am well-versed in Python, utilizing libraries such as NumPy and Matplotlib for effective data visualization. I have practical experience in Java, where I developed a system implementing CRUD operations and user management following the MVC pattern. Additionally, I have a solid foundation in C, focusing on the design and integration of hardware and software in embedded systems._x000D_
+_x000D_
+Complementing my technical skills are my soft skills, including collaborative teamwork, strong active listening, and interpersonal communication abilities. I approach problem-solving with critical and analytical thinking, ensuring tasks are completed accurately and efficiently._x000D_
+_x000D_
+I am particularly excited about the opportunity at Aevice Health to contribute as a Front-End Developer Intern. The prospect of translating UI/UX wireframes into code, developing responsive web and mobile applications, and working within a team that encourages innovation aligns with my academic background and professional aspirations._x000D_
+_x000D_
+Moreover, I appreciate Aevice Health's emphasis on a holistic learning experience, as outlined in the learning outcomes for this internship. I am confident that this internship will provide me with the exposure and knowledge to participate in the full development lifecycle and gain valuable insights into various aspects of software development._x000D_
+_x000D_
+I am available for a flexible start/end date, and I have included a link to my GitHub in my application for your reference._x000D_
+_x000D_
+Thank you for considering my application. I am enthusiastic about the prospect of contributing to Aevice Health's mission and would be honored to be part of your innovative team._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -63,73 +69,76 @@
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I am writing to express my keen interest in the Service Support Engineer - Networking position at ANOTECH Singapore, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, in my second year of study._x000D_
-_x000D_
-The prospect of contributing to the maintenance and troubleshooting of hardware infrastructure and systems aligns perfectly with my strong desire to learn from experienced engineers. Inspired by my father, who holds a master's in engineering, I am eager to immerse myself in a dynamic environment and contribute effectively to ANOTECH's team._x000D_
-_x000D_
-In terms of technical skills, I am proficient in Python, utilizing libraries such as NumPy and Matplotlib for data visualization. Additionally, my experience with Java involves developing systems that implement CRUD operations and user management following the MVC pattern. My expertise extends to C, where I focus on designing and integrating embedded systems, combining both hardware and software seamlessly._x000D_
-_x000D_
-Complementing my technical proficiency are my soft skills, including collaborative teamwork, active listening, and effective interpersonal communication. I bring a critical and analytical mindset to problem-solving, ensuring tasks are completed accurately and efficiently. My ability to adapt to a fast-paced environment, coupled with a customer-oriented and positive working attitude, positions me well for the challenges of the Service Support Engineer role._x000D_
-_x000D_
-I am confident that my technical acumen, coupled with my dedication to learning and adapting to new technologies, make me a strong fit for ANOTECH Singapore. I am excited about the opportunity to contribute to your team and further develop my skills within your esteemed organization._x000D_
-_x000D_
-Thank you for considering my application. I look forward to the possibility of discussing how my skills and experiences align with the needs of ANOTECH Singapore._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I recently came across the Service Support Engineer - Networking position at ANOTECH Singapore on Glints.com, and I am writing to express my strong interest in joining your team._x000D_
+_x000D_
+My motivation for applying stems from a strong desire to learn from experienced engineers and follow in my father's footsteps, who holds a master's degree in engineering. I believe that ANOTECH's commitment to excellence aligns perfectly with my career aspirations._x000D_
+_x000D_
+In terms of technical skills, I bring to the table experience in Python, where I've leveraged libraries such as NumPy and Matplotlib for advanced data visualization. My proficiency in Java includes developing systems that implement CRUD operations and user management following the MVC pattern. Additionally, I have hands-on experience with C, focusing on embedded systems design and integration of hardware and software._x000D_
+_x000D_
+On the soft skills front, I am skilled in collaborative teamwork, with a strong emphasis on active listening and interpersonal communication. I approach problem-solving with critical and analytical thinking, ensuring tasks are completed with a high degree of accuracy. My ability to think innovatively and work effectively in a team setting positions me as a valuable asset in a dynamic environment._x000D_
+_x000D_
+I am particularly drawn to ANOTECH's commitment to maintaining and troubleshooting hardware infrastructure and systems. With my technical expertise and eagerness to pick up new technologies, I am confident in my ability to contribute effectively to your team._x000D_
+_x000D_
+Thank you for considering my application. I am enthusiastic about the opportunity to discuss how my skills and experiences align with the needs of ANOTECH Singapore. I look forward to the possibility of an interview._x000D_
+_x000D_
+Best Regards,_x000D_
+_x000D_
+Chuang Kai Siang</t>
+  </si>
+  <si>
+    <t>Subject: Application for Frontend Web Developer Position at El Pando Pte Ltd_x000D_
+_x000D_
+Dear Hiring Manager,_x000D_
+_x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I am currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Frontend Web Developer position at El Pando Pte Ltd on Glints.com and am writing to express my strong interest in joining your quirky and passionate team._x000D_
+_x000D_
+My motivation for applying stems from a profound desire to learn from experienced engineers, coupled with a familial inspiration drawn from my father, who holds a master's degree in engineering. I believe El Pando's unique blend of humor, passion, and impactful projects aligns perfectly with my career aspirations._x000D_
+_x000D_
+On the technical front, I bring a solid foundation in Python, specializing in data visualization using libraries such as NumPy and Matplotlib. Additionally, I have hands-on experience with Java, implementing systems following the MVC pattern, and C, focusing on the design and integration of embedded systems. My skill set extends to collaborative teamwork, where my strong active listening and interpersonal communication skills contribute to effective problem-solving and decision-making._x000D_
+_x000D_
+Your outlined toolkit perfectly resonates with my skills, including my expertise in HTML, CSS, and JavaScript, along with experience in React, Angular, and Vue. I am excited about the opportunity to contribute my artsy coding skills to El Pando's epic government projects._x000D_
+_x000D_
+What truly excites me about El Pando is the prospect of diving into monumental government projects, mingling with software veterans, and being part of a team that values impactful contributions. The inclusive culture, flexible working arrangements, and the prospect of working with industry masters make El Pando an ideal environment for my professional growth._x000D_
+_x000D_
+In conclusion, I am enthusiastic about the chance to bring my technical prowess, creative mindset, and collaborative spirit to El Pando Pte Ltd. Thank you for considering my application. I look forward to the opportunity to discuss how I can contribute to your team._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Civil/Architecture Engineering Intern Position_x000D_
+    <t>Subject: Application for Events Sales Consultant Position at Empire Marketing_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. I am writing to express my strong interest in the Civil/Architecture Engineering Intern position at HEAP HENG METAL PTE LTD, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year._x000D_
-_x000D_
-The opportunity to intern at HEAP HENG METAL PTE LTD resonates deeply with my aspirations to learn from experienced engineers and follow in my father's footsteps, who holds a master's degree in engineering. My technical skills include proficiency in Python, where I have experience with libraries such as NumPy and Matplotlib for data visualization. Additionally, I am skilled in Java, developing systems following the MVC pattern, and in C, implementing embedded systems with a focus on hardware and software integration._x000D_
-_x000D_
-In my academic journey, I have honed my collaborative teamwork skills, demonstrating strong active listening and interpersonal communication abilities. I am adept at critical thinking and analytical problem-solving, ensuring tasks are completed with a high degree of accuracy. My commitment to excellence aligns well with the responsibilities outlined in the job description, including auto CAD drafting, site meetings, and preparation of shop drawings and progress reports._x000D_
-_x000D_
-I am confident that my technical proficiency and soft skills make me a valuable candidate for this internship. I am eager to contribute to HEAP HENG METAL PTE LTD and further develop my skills under your mentorship. I am available to discuss how my qualifications align with the needs of your team in more detail at your earliest convenience._x000D_
-_x000D_
-Thank you for considering my application. I look forward to the opportunity to contribute to your esteemed organization._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, entering my second year. I recently came across the Events Sales Consultant position at Empire Marketing on Glints.com and am eager to express my interest in joining your esteemed organization._x000D_
+_x000D_
+I am motivated to apply for this role due to my strong desire to learn from experienced professionals, particularly in sales and marketing. Additionally, following in my father's footsteps, who holds a master's degree in engineering, I am inspired to carve my niche in a dynamic industry where I can contribute and grow._x000D_
+_x000D_
+In terms of technical skills, I have hands-on experience in Python, utilizing libraries like NumPy and Matplotlib for effective data visualization. My proficiency extends to Java, where I have developed a system implementing CRUD operations and user management following the MVC pattern. Furthermore, my expertise in C includes the design and integration of embedded systems, focusing on both hardware and software aspects._x000D_
+_x000D_
+Complementing my technical skills are my soft skills, including collaborative teamwork, active listening, and strong interpersonal communication. I possess critical thinking abilities and analytical skills, enabling me to solve problems efficiently and make informed decisions. I am committed to ensuring tasks are completed with a high degree of accuracy, demonstrating attention to detail in every aspect of my work._x000D_
+_x000D_
+I am excited about the opportunity to contribute to Empire Marketing as an Events Sales Consultant. The prospect of developing solutions and strategies for client target audiences, providing excellent customer service, and supporting organizational operations aligns with my aspirations for personal and professional growth._x000D_
+_x000D_
+Thank you for considering my application. I am enthusiastic about the possibility of contributing to the success of Empire Marketing and would welcome the chance to discuss how my skills and experiences align with your organization's needs. I look forward to the opportunity for an interview._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for IOT Intern Position at ConcreteAI_x000D_
+    <t>Subject: Application for Accounting Intern Position_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I recently came across the IOT Intern (Q3 Q4 Sem 1) position at ConcreteAI on Glints.com and am writing to express my keen interest in joining your team._x000D_
-_x000D_
-The prospect of contributing to ConcreteAI's mission of digitalizing the construction industry through AI and IoT-based technologies is particularly appealing to me. My strong desire to learn from experienced engineers, coupled with a familial connection—my father holds a master's in engineering—fuels my aspiration to make a meaningful impact in this field._x000D_
-_x000D_
-In terms of technical skills, I bring a solid foundation in Python, utilizing libraries like NumPy and Matplotlib for data visualization, and Java, where I've implemented systems following the MVC pattern. My experience in C involves designing and integrating hardware and software for embedded systems. These technical competencies align well with the requirements outlined in the job description, making me confident in my ability to contribute effectively._x000D_
-_x000D_
-Complementing my technical expertise are my soft skills, including collaborative teamwork, active listening, and strong interpersonal communication. I excel in critical thinking and problem-solving, ensuring tasks are completed accurately and efficiently. My commitment to delivering high-quality work aligns with the innovative and fast-paced environment at ConcreteAI._x000D_
-_x000D_
-I am excited about the opportunity to work closely with the Tech team, contributing to the design of IoT solutions, prototyping new devices, and deploying sensors. My passion for building, owning, and scaling products, combined with my ability to adapt to an innovative startup environment, makes me a fitting candidate for this role._x000D_
-_x000D_
-Thank you for considering my application. I am eager to further discuss how my skills and enthusiasm align with ConcreteAI's goals. I look forward to the possibility of contributing to your team's success._x000D_
-_x000D_
-Best Regards,_x000D_
-Chuang Kai Siang</t>
-  </si>
-  <si>
-    <t>Subject: Application for Engineering Assistant Position_x000D_
-_x000D_
-Dear Hiring Manager,_x000D_
-_x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, entering my second year. I recently came across the Engineering Assistant position at Environmental Solutions (Asia) Pte Ltd on Glints.com, and I am writing to express my keen interest in joining your esteemed team._x000D_
-_x000D_
-My strong desire to learn from experienced engineers, coupled with a personal motivation inspired by my father's successful career in engineering, fuels my passion for this role. I am confident that my technical skills align seamlessly with the requirements of the position. In terms of technical expertise, I am well-versed in Python, utilizing libraries such as NumPy and Matplotlib for efficient data visualization. Additionally, I have hands-on experience in Java, implementing systems following the MVC pattern, and in C, focusing on embedded systems' design and integration of hardware and software._x000D_
-_x000D_
-Beyond technical proficiency, my collaborative teamwork, active listening, and interpersonal communication skills make me a valuable candidate. I possess a critical and analytical mindset, enabling me to solve problems efficiently and make well-informed decisions. My commitment to precision ensures tasks are completed with a high degree of accuracy, reflecting my dedication to contributing effectively to your ongoing projects._x000D_
-_x000D_
-I am particularly excited about the prospect of contributing to projects like the Conversion of Waste Plastics to Oil and the Recovery of Industrial Waste through Thermal, Physical, and Chemical Processes. I am confident that my working knowledge of Heat Transfer, Thermodynamics, Fluid Dynamics, and CAD drawing will enable me to make meaningful contributions to your team._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the opportunity to further discuss how my skills and passion align with the goals of Environmental Solutions (Asia) Pte Ltd. I am eager to contribute to your team and learn from the best in the field._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Accounting Intern position at FOMO Pay Pte Ltd on Glints.com and am writing to express my strong interest in the role._x000D_
+_x000D_
+Driven by a profound desire to learn from seasoned professionals and inspired by my father, who holds a master's degree in engineering, I am eager to contribute to FOMO Pay's dynamic environment. My technical skills include proficiency in Python, Java, and C, with experience in data visualization, system development following the MVC pattern, and embedded systems design and integration._x000D_
+_x000D_
+In addition to my technical expertise, I possess strong collaborative teamwork skills, coupled with active listening and effective interpersonal communication abilities. I approach problem-solving with a critical and analytical mindset, ensuring tasks are completed meticulously and with a high degree of accuracy._x000D_
+_x000D_
+I am excited about the opportunity to apply my skills and knowledge to support FOMO Pay's accounting team. The prospect of participating in financial reporting, automation projects, and contributing to account payables and receivables functions aligns well with my academic background and practical experience._x000D_
+_x000D_
+Thank you for considering my application. I look forward to the possibility of discussing how my skills and enthusiasm can contribute to the success of FOMO Pay Pte Ltd. Please find my resume attached for your reference._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -489,11 +498,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D615BA-1EBC-4A49-B890-96945AB112FC}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="176.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="177.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -501,27 +512,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>

--- a/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tc72i\OneDrive\Documents\GitHub\InAuto\InAuto_Project_2200589F_2202465G\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{660362A0-4958-4A35-956C-A0C6B5A73F95}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CCC21-0268-49BE-9062-53FAAF29B7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
   </bookViews>
@@ -41,25 +41,60 @@
     <t>Email Applications</t>
   </si>
   <si>
-    <t>Subject: Application for Front-End Developer/Software Intern Position - Jun-Dec 2024_x000D_
+    <t>Subject: Application for Project Engineer Position at Aevice Health_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I am currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Front-End Developer/Software Intern position at Aevice Health on Glints.com and am writing to express my keen interest in joining your dynamic team._x000D_
-_x000D_
-My motivation for applying stems from a strong desire to learn from experienced engineers and follow in my father's footsteps, who holds a master's in engineering. I am confident that my technical skills, coupled with my passion for innovation, make me a suitable candidate for this internship._x000D_
-_x000D_
-In terms of technical proficiency, I am well-versed in Python, utilizing libraries such as NumPy and Matplotlib for effective data visualization. I have practical experience in Java, where I developed a system implementing CRUD operations and user management following the MVC pattern. Additionally, I have a solid foundation in C, focusing on the design and integration of hardware and software in embedded systems._x000D_
-_x000D_
-Complementing my technical skills are my soft skills, including collaborative teamwork, strong active listening, and interpersonal communication abilities. I approach problem-solving with critical and analytical thinking, ensuring tasks are completed accurately and efficiently._x000D_
-_x000D_
-I am particularly excited about the opportunity at Aevice Health to contribute as a Front-End Developer Intern. The prospect of translating UI/UX wireframes into code, developing responsive web and mobile applications, and working within a team that encourages innovation aligns with my academic background and professional aspirations._x000D_
-_x000D_
-Moreover, I appreciate Aevice Health's emphasis on a holistic learning experience, as outlined in the learning outcomes for this internship. I am confident that this internship will provide me with the exposure and knowledge to participate in the full development lifecycle and gain valuable insights into various aspects of software development._x000D_
-_x000D_
-I am available for a flexible start/end date, and I have included a link to my GitHub in my application for your reference._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the prospect of contributing to Aevice Health's mission and would be honored to be part of your innovative team._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I recently came across the Project Engineer position at Aevice Health on Glints.com and am writing to express my strong interest in joining your innovative team._x000D_
+_x000D_
+Motivated by a deep desire to learn from experienced engineers and inspired by my father, who holds a master's degree in engineering, I am eager to contribute my technical skills and collaborate with a dynamic team at Aevice Health. My passion for problem-solving and commitment to accuracy align seamlessly with the fast-paced startup environment that Aevice Health offers._x000D_
+_x000D_
+In terms of technical expertise, I am well-versed in Python, utilizing libraries like NumPy and Matplotlib for effective data visualization. I have hands-on experience in Java, implementing systems with CRUD operations and user management following the MVC pattern. Additionally, my proficiency in C extends to designing and integrating embedded systems, focusing on both hardware and software aspects._x000D_
+_x000D_
+On the soft skills front, I bring to the table a strong foundation in collaborative teamwork, coupled with active listening and interpersonal communication skills. My ability to think critically and analytically ensures effective problem-solving and decision-making, resulting in tasks completed with a high degree of accuracy._x000D_
+_x000D_
+The Project Engineer role at Aevice Health perfectly resonates with my academic background and technical proficiency, and I am excited about the opportunity to contribute to cutting-edge projects in respiratory care technology. I am confident in my ability to adapt and thrive in a multidisciplinary environment, as well as in meeting your travel requirements for collaborating with external partners._x000D_
+_x000D_
+I look forward to the possibility of discussing how my skills and passion align with the goals of Aevice Health. Thank you for considering my application._x000D_
+_x000D_
+Best Regards,_x000D_
+_x000D_
+Chuang Kai Siang</t>
+  </si>
+  <si>
+    <t>Subject: Application for Front-End Developer/Software Intern Position_x000D_
+_x000D_
+Dear Hiring Manager,_x000D_
+_x000D_
+I am writing to express my strong interest in the Front-End Developer/Software Intern position at Aevice Health, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. The innovative work and commitment to improving patient lives at Aevice Health resonate with my passion for impactful technology, and my eagerness to learn from experienced engineers aligns with my father's inspiring career in engineering._x000D_
+_x000D_
+My journey in software development has equipped me with diverse technical skills. Proficient in Python, I have utilized libraries like NumPy and Matplotlib for advanced data visualization. In Java, I implemented a system following the MVC pattern, emphasizing CRUD operations and user management. Additionally, my expertise extends to C, where I focused on embedded systems, emphasizing the integration of hardware and software design._x000D_
+_x000D_
+Complementing my technical skills are my soft skills, which include collaborative teamwork, active listening, and strong interpersonal communication. My ability to think critically and analytically enables me to solve problems efficiently, ensuring tasks are completed with a high degree of accuracy. These qualities, along with my genuine desire to contribute to Aevice Health's innovative projects, make me confident in my ability to thrive in your dynamic work environment._x000D_
+_x000D_
+I am excited about the opportunity to join Aevice Health as a Front-End Developer Intern and contribute to the development of smart wearable devices and mobile platforms. I believe that my technical expertise, coupled with my dedication to learning and collaboration, will allow me to make valuable contributions to your team._x000D_
+_x000D_
+Thank you for considering my application. I am looking forward to the possibility of discussing how my skills and passion align with Aevice Health's goals. Please find my GitHub profile [insert GitHub link] for your reference._x000D_
+_x000D_
+Best Regards,_x000D_
+Chuang Kai Siang</t>
+  </si>
+  <si>
+    <t>Subject: Application for Generative AI Engineer Position_x000D_
+_x000D_
+Dear Hiring Manager,_x000D_
+_x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I recently came across the Generative AI Engineer position at Aha AI on Glints.com and am writing to express my strong interest in joining your dynamic team._x000D_
+_x000D_
+Growing up with a father who holds a master's in engineering, I've been inspired to follow in his footsteps and develop a solid foundation in the field. My main motivation for applying to Aha AI is the opportunity to learn from experienced engineers in a fully remote environment, fostering a culture that values both practicality and creativity._x000D_
+_x000D_
+In terms of technical skills, I am well-versed in Python, utilizing libraries like NumPy and Matplotlib for effective data visualization. My experience in Java includes developing systems implementing CRUD operations and user management following the MVC pattern. Additionally, I have hands-on experience in C, focusing on the design and integration of embedded systems, combining both hardware and software seamlessly._x000D_
+_x000D_
+On the softer side, I bring strong collaborative teamwork skills with a keen ability for active listening and effective interpersonal communication. My critical thinking and analytical abilities enable me to solve problems and make decisions with a high degree of accuracy. I am committed to ensuring tasks are completed efficiently, contributing positively to the team's success._x000D_
+_x000D_
+In conclusion, I am excited about the prospect of contributing my technical skills and collaborative mindset to Aha AI's innovative projects. I believe my combination of technical proficiency and soft skills align well with the requirements for the Generative AI Engineer role._x000D_
+_x000D_
+Thank you for considering my application. I look forward to the opportunity for an interview to further discuss how my skills can contribute to the success of Aha AI._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -69,76 +104,35 @@
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I recently came across the Service Support Engineer - Networking position at ANOTECH Singapore on Glints.com, and I am writing to express my strong interest in joining your team._x000D_
-_x000D_
-My motivation for applying stems from a strong desire to learn from experienced engineers and follow in my father's footsteps, who holds a master's degree in engineering. I believe that ANOTECH's commitment to excellence aligns perfectly with my career aspirations._x000D_
-_x000D_
-In terms of technical skills, I bring to the table experience in Python, where I've leveraged libraries such as NumPy and Matplotlib for advanced data visualization. My proficiency in Java includes developing systems that implement CRUD operations and user management following the MVC pattern. Additionally, I have hands-on experience with C, focusing on embedded systems design and integration of hardware and software._x000D_
-_x000D_
-On the soft skills front, I am skilled in collaborative teamwork, with a strong emphasis on active listening and interpersonal communication. I approach problem-solving with critical and analytical thinking, ensuring tasks are completed with a high degree of accuracy. My ability to think innovatively and work effectively in a team setting positions me as a valuable asset in a dynamic environment._x000D_
-_x000D_
-I am particularly drawn to ANOTECH's commitment to maintaining and troubleshooting hardware infrastructure and systems. With my technical expertise and eagerness to pick up new technologies, I am confident in my ability to contribute effectively to your team._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the opportunity to discuss how my skills and experiences align with the needs of ANOTECH Singapore. I look forward to the possibility of an interview._x000D_
-_x000D_
-Best Regards,_x000D_
-_x000D_
-Chuang Kai Siang</t>
-  </si>
-  <si>
-    <t>Subject: Application for Frontend Web Developer Position at El Pando Pte Ltd_x000D_
-_x000D_
-Dear Hiring Manager,_x000D_
-_x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I am currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Frontend Web Developer position at El Pando Pte Ltd on Glints.com and am writing to express my strong interest in joining your quirky and passionate team._x000D_
-_x000D_
-My motivation for applying stems from a profound desire to learn from experienced engineers, coupled with a familial inspiration drawn from my father, who holds a master's degree in engineering. I believe El Pando's unique blend of humor, passion, and impactful projects aligns perfectly with my career aspirations._x000D_
-_x000D_
-On the technical front, I bring a solid foundation in Python, specializing in data visualization using libraries such as NumPy and Matplotlib. Additionally, I have hands-on experience with Java, implementing systems following the MVC pattern, and C, focusing on the design and integration of embedded systems. My skill set extends to collaborative teamwork, where my strong active listening and interpersonal communication skills contribute to effective problem-solving and decision-making._x000D_
-_x000D_
-Your outlined toolkit perfectly resonates with my skills, including my expertise in HTML, CSS, and JavaScript, along with experience in React, Angular, and Vue. I am excited about the opportunity to contribute my artsy coding skills to El Pando's epic government projects._x000D_
-_x000D_
-What truly excites me about El Pando is the prospect of diving into monumental government projects, mingling with software veterans, and being part of a team that values impactful contributions. The inclusive culture, flexible working arrangements, and the prospect of working with industry masters make El Pando an ideal environment for my professional growth._x000D_
-_x000D_
-In conclusion, I am enthusiastic about the chance to bring my technical prowess, creative mindset, and collaborative spirit to El Pando Pte Ltd. Thank you for considering my application. I look forward to the opportunity to discuss how I can contribute to your team._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Service Support Engineer - Networking position at ANOTECH Singapore on Glints.com, and I am writing to express my strong interest in joining your esteemed team._x000D_
+_x000D_
+My motivation for applying stems from a deep-seated desire to learn from experienced engineers, coupled with a personal connection to the field through my father, who holds a master's degree in engineering. I am confident that this role aligns perfectly with my career aspirations, providing me with the opportunity to contribute to the maintenance and troubleshooting of hardware infrastructure and systems, as outlined in the job description._x000D_
+_x000D_
+In terms of technical skills, I bring a solid foundation in Python, specializing in data visualization using libraries like NumPy and Matplotlib. Additionally, my proficiency in Java involves developing systems implementing CRUD operations and user management following the MVC pattern. With experience in C, I have focused on embedded systems, emphasizing the integration of hardware and software._x000D_
+_x000D_
+Complementing my technical expertise, I possess strong soft skills crucial for effective collaboration in a dynamic environment. My background in collaborative teamwork, coupled with active listening and interpersonal communication skills, positions me as a valuable team player. I am adept at critical thinking and analytical problem-solving, ensuring tasks are completed with a high degree of accuracy._x000D_
+_x000D_
+I am particularly drawn to ANOTECH Singapore due to its commitment to excellence and innovation in the networking sector. I am confident that my skills and eagerness to learn new technologies align well with the requirements of the role._x000D_
+_x000D_
+Thank you for considering my application. I am enthusiastic about the opportunity to contribute to your team and would welcome the chance to discuss further how my skills align with the needs of ANOTECH Singapore. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Events Sales Consultant Position at Empire Marketing_x000D_
+    <t>Subject: Application for Civil/Architecture Engineering Intern Position_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, entering my second year. I recently came across the Events Sales Consultant position at Empire Marketing on Glints.com and am eager to express my interest in joining your esteemed organization._x000D_
-_x000D_
-I am motivated to apply for this role due to my strong desire to learn from experienced professionals, particularly in sales and marketing. Additionally, following in my father's footsteps, who holds a master's degree in engineering, I am inspired to carve my niche in a dynamic industry where I can contribute and grow._x000D_
-_x000D_
-In terms of technical skills, I have hands-on experience in Python, utilizing libraries like NumPy and Matplotlib for effective data visualization. My proficiency extends to Java, where I have developed a system implementing CRUD operations and user management following the MVC pattern. Furthermore, my expertise in C includes the design and integration of embedded systems, focusing on both hardware and software aspects._x000D_
-_x000D_
-Complementing my technical skills are my soft skills, including collaborative teamwork, active listening, and strong interpersonal communication. I possess critical thinking abilities and analytical skills, enabling me to solve problems efficiently and make informed decisions. I am committed to ensuring tasks are completed with a high degree of accuracy, demonstrating attention to detail in every aspect of my work._x000D_
-_x000D_
-I am excited about the opportunity to contribute to Empire Marketing as an Events Sales Consultant. The prospect of developing solutions and strategies for client target audiences, providing excellent customer service, and supporting organizational operations aligns with my aspirations for personal and professional growth._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the possibility of contributing to the success of Empire Marketing and would welcome the chance to discuss how my skills and experiences align with your organization's needs. I look forward to the opportunity for an interview._x000D_
-_x000D_
-Best Regards,_x000D_
-Chuang Kai Siang</t>
-  </si>
-  <si>
-    <t>Subject: Application for Accounting Intern Position_x000D_
-_x000D_
-Dear Hiring Manager,_x000D_
-_x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Accounting Intern position at FOMO Pay Pte Ltd on Glints.com and am writing to express my strong interest in the role._x000D_
-_x000D_
-Driven by a profound desire to learn from seasoned professionals and inspired by my father, who holds a master's degree in engineering, I am eager to contribute to FOMO Pay's dynamic environment. My technical skills include proficiency in Python, Java, and C, with experience in data visualization, system development following the MVC pattern, and embedded systems design and integration._x000D_
-_x000D_
-In addition to my technical expertise, I possess strong collaborative teamwork skills, coupled with active listening and effective interpersonal communication abilities. I approach problem-solving with a critical and analytical mindset, ensuring tasks are completed meticulously and with a high degree of accuracy._x000D_
-_x000D_
-I am excited about the opportunity to apply my skills and knowledge to support FOMO Pay's accounting team. The prospect of participating in financial reporting, automation projects, and contributing to account payables and receivables functions aligns well with my academic background and practical experience._x000D_
-_x000D_
-Thank you for considering my application. I look forward to the possibility of discussing how my skills and enthusiasm can contribute to the success of FOMO Pay Pte Ltd. Please find my resume attached for your reference._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2. I recently came across the Civil/Architecture Engineering Intern position at HEAP HENG METAL PTE LTD through Glints.com, and I am writing to express my strong interest in joining Assembly Works HR Pte Ltd._x000D_
+_x000D_
+The main driver behind my application is a profound eagerness to learn from seasoned engineers and follow in my father's footsteps, who holds a master's degree in engineering. My technical skills include proficiency in Python for data visualization using NumPy and Matplotlib, Java for implementing systems following the MVC pattern, and C for embedded systems design and integration of hardware and software._x000D_
+_x000D_
+In addition to my technical skills, I bring strong collaborative teamwork, active listening, and interpersonal communication skills to the table. My ability to think critically and analytically aids in problem-solving and decision-making, ensuring tasks are completed accurately. These skills, coupled with my commitment to excellence, align well with the diverse responsibilities outlined in the job description._x000D_
+_x000D_
+I am excited about the opportunity to contribute to your team's success by leveraging my technical and soft skills. The prospect of attending site meetings, preparing shop drawings, and assisting in various ad hoc duties particularly resonates with my academic background and practical experience._x000D_
+_x000D_
+Thank you for considering my application. I am eager to contribute my skills to the innovative work at HEAP HENG METAL PTE LTD and am confident in my ability to make a meaningful contribution to your team. I look forward to the possibility of discussing how my skills align with the needs of your organization in further detail._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -504,7 +498,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="177.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="254.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -512,27 +506,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="288" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="288" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>

--- a/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tc72i\OneDrive\Documents\GitHub\InAuto\InAuto_Project_2200589F_2202465G\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CCC21-0268-49BE-9062-53FAAF29B7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F8F6A8-8D59-4A19-9525-E8A135ABFA7A}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
   </bookViews>
@@ -36,106 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Email Applications</t>
-  </si>
-  <si>
-    <t>Subject: Application for Project Engineer Position at Aevice Health_x000D_
-_x000D_
-Dear Hiring Manager,_x000D_
-_x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I recently came across the Project Engineer position at Aevice Health on Glints.com and am writing to express my strong interest in joining your innovative team._x000D_
-_x000D_
-Motivated by a deep desire to learn from experienced engineers and inspired by my father, who holds a master's degree in engineering, I am eager to contribute my technical skills and collaborate with a dynamic team at Aevice Health. My passion for problem-solving and commitment to accuracy align seamlessly with the fast-paced startup environment that Aevice Health offers._x000D_
-_x000D_
-In terms of technical expertise, I am well-versed in Python, utilizing libraries like NumPy and Matplotlib for effective data visualization. I have hands-on experience in Java, implementing systems with CRUD operations and user management following the MVC pattern. Additionally, my proficiency in C extends to designing and integrating embedded systems, focusing on both hardware and software aspects._x000D_
-_x000D_
-On the soft skills front, I bring to the table a strong foundation in collaborative teamwork, coupled with active listening and interpersonal communication skills. My ability to think critically and analytically ensures effective problem-solving and decision-making, resulting in tasks completed with a high degree of accuracy._x000D_
-_x000D_
-The Project Engineer role at Aevice Health perfectly resonates with my academic background and technical proficiency, and I am excited about the opportunity to contribute to cutting-edge projects in respiratory care technology. I am confident in my ability to adapt and thrive in a multidisciplinary environment, as well as in meeting your travel requirements for collaborating with external partners._x000D_
-_x000D_
-I look forward to the possibility of discussing how my skills and passion align with the goals of Aevice Health. Thank you for considering my application._x000D_
-_x000D_
-Best Regards,_x000D_
-_x000D_
-Chuang Kai Siang</t>
-  </si>
-  <si>
-    <t>Subject: Application for Front-End Developer/Software Intern Position_x000D_
-_x000D_
-Dear Hiring Manager,_x000D_
-_x000D_
-I am writing to express my strong interest in the Front-End Developer/Software Intern position at Aevice Health, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. The innovative work and commitment to improving patient lives at Aevice Health resonate with my passion for impactful technology, and my eagerness to learn from experienced engineers aligns with my father's inspiring career in engineering._x000D_
-_x000D_
-My journey in software development has equipped me with diverse technical skills. Proficient in Python, I have utilized libraries like NumPy and Matplotlib for advanced data visualization. In Java, I implemented a system following the MVC pattern, emphasizing CRUD operations and user management. Additionally, my expertise extends to C, where I focused on embedded systems, emphasizing the integration of hardware and software design._x000D_
-_x000D_
-Complementing my technical skills are my soft skills, which include collaborative teamwork, active listening, and strong interpersonal communication. My ability to think critically and analytically enables me to solve problems efficiently, ensuring tasks are completed with a high degree of accuracy. These qualities, along with my genuine desire to contribute to Aevice Health's innovative projects, make me confident in my ability to thrive in your dynamic work environment._x000D_
-_x000D_
-I am excited about the opportunity to join Aevice Health as a Front-End Developer Intern and contribute to the development of smart wearable devices and mobile platforms. I believe that my technical expertise, coupled with my dedication to learning and collaboration, will allow me to make valuable contributions to your team._x000D_
-_x000D_
-Thank you for considering my application. I am looking forward to the possibility of discussing how my skills and passion align with Aevice Health's goals. Please find my GitHub profile [insert GitHub link] for your reference._x000D_
-_x000D_
-Best Regards,_x000D_
-Chuang Kai Siang</t>
-  </si>
-  <si>
-    <t>Subject: Application for Generative AI Engineer Position_x000D_
-_x000D_
-Dear Hiring Manager,_x000D_
-_x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I recently came across the Generative AI Engineer position at Aha AI on Glints.com and am writing to express my strong interest in joining your dynamic team._x000D_
-_x000D_
-Growing up with a father who holds a master's in engineering, I've been inspired to follow in his footsteps and develop a solid foundation in the field. My main motivation for applying to Aha AI is the opportunity to learn from experienced engineers in a fully remote environment, fostering a culture that values both practicality and creativity._x000D_
-_x000D_
-In terms of technical skills, I am well-versed in Python, utilizing libraries like NumPy and Matplotlib for effective data visualization. My experience in Java includes developing systems implementing CRUD operations and user management following the MVC pattern. Additionally, I have hands-on experience in C, focusing on the design and integration of embedded systems, combining both hardware and software seamlessly._x000D_
-_x000D_
-On the softer side, I bring strong collaborative teamwork skills with a keen ability for active listening and effective interpersonal communication. My critical thinking and analytical abilities enable me to solve problems and make decisions with a high degree of accuracy. I am committed to ensuring tasks are completed efficiently, contributing positively to the team's success._x000D_
-_x000D_
-In conclusion, I am excited about the prospect of contributing my technical skills and collaborative mindset to Aha AI's innovative projects. I believe my combination of technical proficiency and soft skills align well with the requirements for the Generative AI Engineer role._x000D_
-_x000D_
-Thank you for considering my application. I look forward to the opportunity for an interview to further discuss how my skills can contribute to the success of Aha AI._x000D_
-_x000D_
-Best Regards,_x000D_
-Chuang Kai Siang</t>
-  </si>
-  <si>
-    <t>Subject: Application for Service Support Engineer - Networking Position_x000D_
-_x000D_
-Dear Hiring Manager,_x000D_
-_x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Service Support Engineer - Networking position at ANOTECH Singapore on Glints.com, and I am writing to express my strong interest in joining your esteemed team._x000D_
-_x000D_
-My motivation for applying stems from a deep-seated desire to learn from experienced engineers, coupled with a personal connection to the field through my father, who holds a master's degree in engineering. I am confident that this role aligns perfectly with my career aspirations, providing me with the opportunity to contribute to the maintenance and troubleshooting of hardware infrastructure and systems, as outlined in the job description._x000D_
-_x000D_
-In terms of technical skills, I bring a solid foundation in Python, specializing in data visualization using libraries like NumPy and Matplotlib. Additionally, my proficiency in Java involves developing systems implementing CRUD operations and user management following the MVC pattern. With experience in C, I have focused on embedded systems, emphasizing the integration of hardware and software._x000D_
-_x000D_
-Complementing my technical expertise, I possess strong soft skills crucial for effective collaboration in a dynamic environment. My background in collaborative teamwork, coupled with active listening and interpersonal communication skills, positions me as a valuable team player. I am adept at critical thinking and analytical problem-solving, ensuring tasks are completed with a high degree of accuracy._x000D_
-_x000D_
-I am particularly drawn to ANOTECH Singapore due to its commitment to excellence and innovation in the networking sector. I am confident that my skills and eagerness to learn new technologies align well with the requirements of the role._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the opportunity to contribute to your team and would welcome the chance to discuss further how my skills align with the needs of ANOTECH Singapore. _x000D_
-_x000D_
-Best Regards,_x000D_
-Chuang Kai Siang</t>
-  </si>
-  <si>
-    <t>Subject: Application for Civil/Architecture Engineering Intern Position_x000D_
-_x000D_
-Dear Hiring Manager,_x000D_
-_x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2. I recently came across the Civil/Architecture Engineering Intern position at HEAP HENG METAL PTE LTD through Glints.com, and I am writing to express my strong interest in joining Assembly Works HR Pte Ltd._x000D_
-_x000D_
-The main driver behind my application is a profound eagerness to learn from seasoned engineers and follow in my father's footsteps, who holds a master's degree in engineering. My technical skills include proficiency in Python for data visualization using NumPy and Matplotlib, Java for implementing systems following the MVC pattern, and C for embedded systems design and integration of hardware and software._x000D_
-_x000D_
-In addition to my technical skills, I bring strong collaborative teamwork, active listening, and interpersonal communication skills to the table. My ability to think critically and analytically aids in problem-solving and decision-making, ensuring tasks are completed accurately. These skills, coupled with my commitment to excellence, align well with the diverse responsibilities outlined in the job description._x000D_
-_x000D_
-I am excited about the opportunity to contribute to your team's success by leveraging my technical and soft skills. The prospect of attending site meetings, preparing shop drawings, and assisting in various ad hoc duties particularly resonates with my academic background and practical experience._x000D_
-_x000D_
-Thank you for considering my application. I am eager to contribute my skills to the innovative work at HEAP HENG METAL PTE LTD and am confident in my ability to make a meaningful contribution to your team. I look forward to the possibility of discussing how my skills align with the needs of your organization in further detail._x000D_
-_x000D_
-Best Regards,_x000D_
-Chuang Kai Siang</t>
   </si>
 </sst>
 </file>
@@ -171,11 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D615BA-1EBC-4A49-B890-96945AB112FC}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -498,7 +398,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="254.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="174.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -506,31 +406,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="288" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="288" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22F8F6A8-8D59-4A19-9525-E8A135ABFA7A}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AFDE556-2209-4938-8806-9DDC9885B354}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
   </bookViews>
@@ -36,9 +36,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email Applications</t>
+  </si>
+  <si>
+    <t>Subject: Application for Front-End Developer/Software Intern Position_x000D_
+_x000D_
+Dear Hiring Manager,_x000D_
+_x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, entering my second year. I came across the Front-End Developer/Software Intern position at Aevice Health on Glints.com, and I am eager to express my interest and motivation to contribute to your team._x000D_
+_x000D_
+My enthusiasm for this opportunity stems from a strong desire to learn from experienced engineers, inspired by my father, who holds a master's in engineering. I am particularly drawn to Aevice Health's commitment to innovation and problem-solving in healthcare, aligning with my passion for applying technology to address real-world challenges._x000D_
+_x000D_
+With a solid foundation in Python, Java, and C, I have experience in developing systems, implementing CRUD operations, and working on embedded systems. These technical skills have equipped me to tackle the responsibilities outlined for the Front-End Developer Intern role, including translating UI/UX wireframes into code and developing responsive web and mobile applications._x000D_
+_x000D_
+In addition to my technical competencies, I bring a range of soft skills essential for collaborative teamwork and problem-solving. My experience has honed my ability to communicate effectively, think critically, and ensure tasks are completed with precision and accuracy. I am eager to leverage these skills within the dynamic and innovative environment at Aevice Health._x000D_
+_x000D_
+I am available for the internship from June to December 2024, and I have included a link to my GitHub profile in my application for your reference. I am excited about the opportunity to contribute to Aevice Health and gain valuable experience in software development. Thank you for considering my application._x000D_
+_x000D_
+Best Regards,_x000D_
+Chuang Kai Siang</t>
+  </si>
+  <si>
+    <t>Subject: Application for Software Engineer - Remote Position at Kopi Date_x000D_
+_x000D_
+Dear Hiring Manager,_x000D_
+_x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I recently came across the Software Engineer - Remote position at Kopi Date through Glints.com. I am writing to express my keen interest in joining your team, driven by a strong desire to learn from experienced engineers and inspired by my father's path, who holds a master's degree in engineering._x000D_
+_x000D_
+In my second year of pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I have honed my technical skills in Python, Java, and C, acquiring proficiency in various aspects of software development. I have experience with Python for data visualization using libraries like NumPy and Matplotlib, Java for implementing MVC pattern systems with CRUD functionalities, and C for embedded systems design and integration._x000D_
+_x000D_
+Moreover, I am well-versed in the essential skills required for the role at Kopi Date, including JavaScript, Node.js, and Firebase database knowledge, along with a strong inclination towards entrepreneurial thinking and initiative-taking._x000D_
+_x000D_
+On the soft skills front, I bring to the table a collaborative mindset, adept at active listening and effective interpersonal communication. My ability to think critically and analytically enables me to tackle complex problems efficiently, ensuring tasks are executed with precision and accuracy._x000D_
+_x000D_
+I am particularly drawn to the opportunity to contribute to the development of user features, optimization of operations, and enhancement of machine learning algorithms at Kopi Date. I am eager to leverage my skills and enthusiasm to support your team's objectives and drive innovation in a remote capacity._x000D_
+_x000D_
+Thank you for considering my application. I look forward to the possibility of discussing how my background, skills, and motivations align with Kopi Date's vision and requirements. _x000D_
+_x000D_
+Best Regards,_x000D_
+Chuang Kai Siang</t>
+  </si>
+  <si>
+    <t>Subject: Application for Junior Software Developer Position at Mavericks Consulting_x000D_
+_x000D_
+Dear Hiring Manager,_x000D_
+_x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Singapore, in my second year. I came across the Junior Software Developer role at Mavericks Consulting through Glints.com, and I am reaching out to express my keen interest in joining your team._x000D_
+_x000D_
+My main motivation for applying stems from my strong desire to learn from experienced engineers, coupled with a personal aspiration to follow in my father's footsteps, who holds a master's degree in engineering. My technical background includes proficiency in Python, where I've leveraged libraries such as NumPy and Matplotlib for enhanced data visualization. Additionally, I have hands-on experience in Java, having developed a system following the MVC pattern, and in C, focusing on embedded systems design and integration._x000D_
+_x000D_
+In terms of soft skills, I bring to the table a strong foundation in collaborative teamwork, bolstered by active listening and effective interpersonal communication skills. My ability to think critically and analytically enables me to solve problems efficiently, ensuring tasks are completed with a high degree of accuracy._x000D_
+_x000D_
+I am particularly drawn to Mavericks Consulting because of its commitment to applying Agile software development practices and its emphasis on continuous learning and growth. I am excited about the opportunity to contribute to innovative projects while further honing my skills in a dynamic environment._x000D_
+_x000D_
+Thank you for considering my application. I am eager to further discuss how my background and skills align with the needs of Mavericks Consulting. Please find my attached resume for more details._x000D_
+_x000D_
+Best Regards,_x000D_
+Chuang Kai Siang</t>
+  </si>
+  <si>
+    <t>Subject: Application for Internship - Bids and Proposal at Mgg Software Pte Ltd_x000D_
+_x000D_
+Dear Hiring Manager,_x000D_
+_x000D_
+I hope this email finds you well. I am writing to express my interest in the Internship - Bids and Proposal position at Mgg Software Pte Ltd, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2._x000D_
+_x000D_
+My main reason for applying stems from a strong desire to learn from experienced professionals, aligning with my aspirations to follow in my father's footsteps, who holds a Masters in Engineering. I am particularly drawn to the opportunity to delve into the intricate processes of tender activities, honing my skills within a competitive business environment._x000D_
+_x000D_
+With a foundation in technical expertise, I bring proficiency in Python, utilizing libraries such as NumPy and Matplotlib for advanced data visualization, along with Java proficiency in implementing systems following the MVC pattern. Additionally, my experience in C has equipped me with embedded systems knowledge, focusing on seamless hardware and software integration._x000D_
+_x000D_
+Complementing my technical skills are my soft skills, honed through collaborative teamwork experiences. I possess strong active listening and interpersonal communication skills, enabling effective problem-solving and decision-making in diverse environments. I am committed to maintaining a high level of accuracy in tasks and thrive both independently and within a team dynamic._x000D_
+_x000D_
+I am eager to contribute to Mgg Software Pte Ltd and leverage this internship opportunity to further develop my skill set while providing valuable support to your tender business. Thank you for considering my application. I look forward to the possibility of discussing how my background, skills, and enthusiasm align with the needs of your team._x000D_
+_x000D_
+Best Regards,_x000D_
+Chuang Kai Siang</t>
+  </si>
+  <si>
+    <t>Subject: Application for Software Engineer Position at Monstyr Pte Ltd_x000D_
+_x000D_
+Dear Hiring Manager,_x000D_
+_x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, in my second year. I came across the Software Engineer position at Monstyr Pte Ltd on Glints.com, and I am writing to express my keen interest in joining your team. My aspiration to pursue a career in software engineering stems from a strong desire to learn from experienced engineers, coupled with a familial influence, as my father holds a master's degree in engineering._x000D_
+_x000D_
+In terms of technical skills, I am proficient in Python, utilizing libraries such as NumPy and Matplotlib for enhanced data visualization. Additionally, I have hands-on experience with Java, where I developed a system adhering to the MVC pattern for CRUD operations and user management. My expertise extends to C programming, particularly in the realm of embedded systems, focusing on the seamless integration of hardware and software design._x000D_
+_x000D_
+Complementing my technical proficiency are my soft skills, which include adeptness in collaborative teamwork, effective communication, and active listening. I possess strong critical thinking abilities, enabling me to solve problems analytically and make well-informed decisions, ensuring tasks are executed with precision and accuracy._x000D_
+_x000D_
+The opportunity to work at Monstyr Pte Ltd excites me, particularly due to the prospect of contributing to the development of innovative solutions that bridge the online-to-offline gap. I am enthusiastic about the challenges that come with building a public-facing web/mobile app and eager to work across the stack from frontend to backend, leveraging my existing skills while acquiring new ones._x000D_
+_x000D_
+Thank you for considering my application. I am confident that my technical acumen, coupled with my collaborative mindset and problem-solving abilities, make me a suitable candidate for the Software Engineer role at Monstyr Pte Ltd. I look forward to the possibility of discussing how my background, skills, and motivations align with the needs of your team._x000D_
+_x000D_
+Best Regards,_x000D_
+Chuang Kai Siang</t>
   </si>
 </sst>
 </file>
@@ -74,8 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D615BA-1EBC-4A49-B890-96945AB112FC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -398,7 +493,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="174.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="173.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -406,6 +501,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AFDE556-2209-4938-8806-9DDC9885B354}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77451E12-A938-43F5-95FD-13E7AEA56538}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
   </bookViews>
@@ -41,93 +41,87 @@
     <t>Email Applications</t>
   </si>
   <si>
-    <t>Subject: Application for Front-End Developer/Software Intern Position_x000D_
+    <t>Subject: Application for Front-End Developer/Software Intern Position at Aevice Health_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, entering my second year. I came across the Front-End Developer/Software Intern position at Aevice Health on Glints.com, and I am eager to express my interest and motivation to contribute to your team._x000D_
-_x000D_
-My enthusiasm for this opportunity stems from a strong desire to learn from experienced engineers, inspired by my father, who holds a master's in engineering. I am particularly drawn to Aevice Health's commitment to innovation and problem-solving in healthcare, aligning with my passion for applying technology to address real-world challenges._x000D_
-_x000D_
-With a solid foundation in Python, Java, and C, I have experience in developing systems, implementing CRUD operations, and working on embedded systems. These technical skills have equipped me to tackle the responsibilities outlined for the Front-End Developer Intern role, including translating UI/UX wireframes into code and developing responsive web and mobile applications._x000D_
-_x000D_
-In addition to my technical competencies, I bring a range of soft skills essential for collaborative teamwork and problem-solving. My experience has honed my ability to communicate effectively, think critically, and ensure tasks are completed with precision and accuracy. I am eager to leverage these skills within the dynamic and innovative environment at Aevice Health._x000D_
-_x000D_
-I am available for the internship from June to December 2024, and I have included a link to my GitHub profile in my application for your reference. I am excited about the opportunity to contribute to Aevice Health and gain valuable experience in software development. Thank you for considering my application._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I am a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Front-End Developer/Software Intern position at Aevice Health through Glints.com, and I am writing to express my strong interest in joining your team._x000D_
+_x000D_
+My enthusiasm for this opportunity stems from a deep-seated desire to learn from experienced engineers and to follow in my father's footsteps, who holds a master's degree in engineering. I am particularly drawn to Aevice Health's innovative approach to healthcare technology and its commitment to creating solutions for real-world problems._x000D_
+_x000D_
+In terms of technical skills, I bring proficiency in Python, Java, and C, with hands-on experience in developing systems, implementing embedded systems, and utilizing libraries such as NumPy and Matplotlib for data visualization. My background in collaborative teamwork, coupled with strong communication and problem-solving abilities, ensures that I can contribute effectively to your team dynamic._x000D_
+_x000D_
+I am confident that my technical acumen, coupled with my soft skills, align well with the responsibilities and requirements outlined for the Front-End Developer Intern role at Aevice Health. I am eager to participate in the full development lifecycle, gain hands-on experience in mobile application development, and contribute to the success of your team._x000D_
+_x000D_
+I am available for a flexible internship period from June to December 2024 and have included a link to my GitHub profile in my application. Thank you for considering my candidacy. I look forward to the possibility of discussing how my skills and experiences can benefit Aevice Health further._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Software Engineer - Remote Position at Kopi Date_x000D_
+    <t>Subject: Application for Frontend Web Developer Position at El Pando Pte Ltd_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I recently came across the Software Engineer - Remote position at Kopi Date through Glints.com. I am writing to express my keen interest in joining your team, driven by a strong desire to learn from experienced engineers and inspired by my father's path, who holds a master's degree in engineering._x000D_
-_x000D_
-In my second year of pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I have honed my technical skills in Python, Java, and C, acquiring proficiency in various aspects of software development. I have experience with Python for data visualization using libraries like NumPy and Matplotlib, Java for implementing MVC pattern systems with CRUD functionalities, and C for embedded systems design and integration._x000D_
-_x000D_
-Moreover, I am well-versed in the essential skills required for the role at Kopi Date, including JavaScript, Node.js, and Firebase database knowledge, along with a strong inclination towards entrepreneurial thinking and initiative-taking._x000D_
-_x000D_
-On the soft skills front, I bring to the table a collaborative mindset, adept at active listening and effective interpersonal communication. My ability to think critically and analytically enables me to tackle complex problems efficiently, ensuring tasks are executed with precision and accuracy._x000D_
-_x000D_
-I am particularly drawn to the opportunity to contribute to the development of user features, optimization of operations, and enhancement of machine learning algorithms at Kopi Date. I am eager to leverage my skills and enthusiasm to support your team's objectives and drive innovation in a remote capacity._x000D_
-_x000D_
-Thank you for considering my application. I look forward to the possibility of discussing how my background, skills, and motivations align with Kopi Date's vision and requirements. _x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I recently came across the Frontend Web Developer position at El Pando Pte Ltd through Glints.com. As a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I am driven by a strong desire to learn from experienced engineers, inspired particularly by my father's career in engineering._x000D_
+_x000D_
+My technical skills include proficiency in Python for data visualization, Java for system development following the MVC pattern, and C for embedded systems design. These experiences have honed my problem-solving abilities and fostered a keen eye for detail, ensuring tasks are completed with precision. Additionally, I possess a knack for collaborative teamwork and effective communication, essential for thriving in dynamic work environments._x000D_
+_x000D_
+What excites me about the opportunity at El Pando Pte Ltd is the chance to immerse myself in monumental government projects while learning from seasoned professionals in the field. I am eager to contribute my skills in HTML, CSS, and JavaScript, and to further develop my expertise in frontend development frameworks such as React and Angular. Moreover, the company's commitment to noteworthy projects and fostering a supportive work culture aligns perfectly with my career aspirations._x000D_
+_x000D_
+Thank you for considering my application. I am enthusiastic about the possibility of joining your team and contributing to El Pando Pte Ltd's success. Please find attached my resume for your review. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Junior Software Developer Position at Mavericks Consulting_x000D_
+    <t>Subject: Application for Network &amp; Systems Engineer Position at eVantage Technology Pte Ltd_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Singapore, in my second year. I came across the Junior Software Developer role at Mavericks Consulting through Glints.com, and I am reaching out to express my keen interest in joining your team._x000D_
-_x000D_
-My main motivation for applying stems from my strong desire to learn from experienced engineers, coupled with a personal aspiration to follow in my father's footsteps, who holds a master's degree in engineering. My technical background includes proficiency in Python, where I've leveraged libraries such as NumPy and Matplotlib for enhanced data visualization. Additionally, I have hands-on experience in Java, having developed a system following the MVC pattern, and in C, focusing on embedded systems design and integration._x000D_
-_x000D_
-In terms of soft skills, I bring to the table a strong foundation in collaborative teamwork, bolstered by active listening and effective interpersonal communication skills. My ability to think critically and analytically enables me to solve problems efficiently, ensuring tasks are completed with a high degree of accuracy._x000D_
-_x000D_
-I am particularly drawn to Mavericks Consulting because of its commitment to applying Agile software development practices and its emphasis on continuous learning and growth. I am excited about the opportunity to contribute to innovative projects while further honing my skills in a dynamic environment._x000D_
-_x000D_
-Thank you for considering my application. I am eager to further discuss how my background and skills align with the needs of Mavericks Consulting. Please find my attached resume for more details._x000D_
+I am writing to express my interest in the Network &amp; Systems Engineer position at eVantage Technology Pte Ltd, as discovered on Glints.com. With a strong desire to learn from experienced engineers and following in my father's footsteps in engineering, I am excited about the opportunity to contribute to your team._x000D_
+_x000D_
+In my second year of study pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I have honed my technical skills, including proficiency in Python for data visualization, Java for system development, and C for embedded systems integration. Moreover, my collaborative teamwork experience and critical thinking abilities align well with the requirements of this role, ensuring tasks are completed accurately and efficiently._x000D_
+_x000D_
+My technical expertise extends to troubleshooting end-user equipment and configuring network infrastructure, complemented by a solid foundation in AWS and Azure. With a keen eye for problem-solving and exceptional stakeholder management skills, I am well-equipped to serve as a point of escalation for complex technical issues, own client relationships, and contribute to pre-sales activities with technical insights._x000D_
+_x000D_
+I am particularly drawn to eVantage's commitment to quality support and service delivery, and I am eager to leverage my skills to contribute to the planning and implementation of IT solutions for your clients. My willingness to work after office hours if required underscores my dedication to ensuring timely and effective resolution of technical issues._x000D_
+_x000D_
+Thank you for considering my application. I look forward to the opportunity to discuss how my skills and experiences align with the needs of eVantage Technology Pte Ltd. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Internship - Bids and Proposal at Mgg Software Pte Ltd_x000D_
+    <t>Subject: Application for Sales Engineer Position at Hermetic-Pumps Singapore_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. I am writing to express my interest in the Internship - Bids and Proposal position at Mgg Software Pte Ltd, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2._x000D_
-_x000D_
-My main reason for applying stems from a strong desire to learn from experienced professionals, aligning with my aspirations to follow in my father's footsteps, who holds a Masters in Engineering. I am particularly drawn to the opportunity to delve into the intricate processes of tender activities, honing my skills within a competitive business environment._x000D_
-_x000D_
-With a foundation in technical expertise, I bring proficiency in Python, utilizing libraries such as NumPy and Matplotlib for advanced data visualization, along with Java proficiency in implementing systems following the MVC pattern. Additionally, my experience in C has equipped me with embedded systems knowledge, focusing on seamless hardware and software integration._x000D_
-_x000D_
-Complementing my technical skills are my soft skills, honed through collaborative teamwork experiences. I possess strong active listening and interpersonal communication skills, enabling effective problem-solving and decision-making in diverse environments. I am committed to maintaining a high level of accuracy in tasks and thrive both independently and within a team dynamic._x000D_
-_x000D_
-I am eager to contribute to Mgg Software Pte Ltd and leverage this internship opportunity to further develop my skill set while providing valuable support to your tender business. Thank you for considering my application. I look forward to the possibility of discussing how my background, skills, and enthusiasm align with the needs of your team._x000D_
+I hope this email finds you well. I am writing to express my interest in the Sales Engineer position at Hermetic-Pumps Singapore, as advertised on Glints.com. With a strong desire to learn from experienced engineers and inspired by my father's engineering background, I am eager to contribute to your esteemed company and grow professionally in the field of pump technology._x000D_
+_x000D_
+Currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I bring a unique blend of technical proficiency and soft skills to this role. My technical expertise includes proficiency in Python, Java, and C, along with hands-on experience in system development and embedded systems integration. I have demonstrated my ability to apply these skills effectively in various projects, showcasing my adaptability and problem-solving capabilities._x000D_
+_x000D_
+Moreover, my collaborative teamwork ethos and strong interpersonal communication skills align well with the collaborative environment at Hermetic-Pumps Singapore. I possess a keen ability to listen actively, analyze situations critically, and make informed decisions to ensure tasks are completed with precision and efficiency._x000D_
+_x000D_
+I am particularly excited about the opportunity to develop an in-depth understanding of pump technology and its applications across diverse industries. My enthusiasm for learning coupled with my technical acumen positions me well to collaborate with the sales team and effectively communicate the features, benefits, and limitations of our pump solutions to potential customers._x000D_
+_x000D_
+In conclusion, I am eager to bring my blend of technical prowess and soft skills to the Sales Engineer role at Hermetic-Pumps Singapore. I am confident in my ability to contribute positively to your team and drive sales growth while providing exceptional post-sales support to customers._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Software Engineer Position at Monstyr Pte Ltd_x000D_
+    <t>Subject: Application for Mechanical Sales Engineer Position_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, in my second year. I came across the Software Engineer position at Monstyr Pte Ltd on Glints.com, and I am writing to express my keen interest in joining your team. My aspiration to pursue a career in software engineering stems from a strong desire to learn from experienced engineers, coupled with a familial influence, as my father holds a master's degree in engineering._x000D_
-_x000D_
-In terms of technical skills, I am proficient in Python, utilizing libraries such as NumPy and Matplotlib for enhanced data visualization. Additionally, I have hands-on experience with Java, where I developed a system adhering to the MVC pattern for CRUD operations and user management. My expertise extends to C programming, particularly in the realm of embedded systems, focusing on the seamless integration of hardware and software design._x000D_
-_x000D_
-Complementing my technical proficiency are my soft skills, which include adeptness in collaborative teamwork, effective communication, and active listening. I possess strong critical thinking abilities, enabling me to solve problems analytically and make well-informed decisions, ensuring tasks are executed with precision and accuracy._x000D_
-_x000D_
-The opportunity to work at Monstyr Pte Ltd excites me, particularly due to the prospect of contributing to the development of innovative solutions that bridge the online-to-offline gap. I am enthusiastic about the challenges that come with building a public-facing web/mobile app and eager to work across the stack from frontend to backend, leveraging my existing skills while acquiring new ones._x000D_
-_x000D_
-Thank you for considering my application. I am confident that my technical acumen, coupled with my collaborative mindset and problem-solving abilities, make me a suitable candidate for the Software Engineer role at Monstyr Pte Ltd. I look forward to the possibility of discussing how my background, skills, and motivations align with the needs of your team._x000D_
+I am writing to express my interest in the Mechanical Sales Engineer position at HERMETIC-Pumps Singapore, as advertised on Glints.com. With a strong desire to learn from experienced engineers and a personal motivation stemming from my father's engineering background, I am eager to contribute to your esteemed company._x000D_
+_x000D_
+Currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I have honed my technical skills in Python, Java, and C programming, focusing on data visualization, system development, and embedded systems integration. My experience in implementing CRUD operations and user management systems demonstrates my proficiency in software development, while my ability to design and integrate hardware and software showcases my versatility in technical problem-solving._x000D_
+_x000D_
+In addition to my technical expertise, I bring to the table strong soft skills essential for collaborative teamwork and effective communication. With a keen aptitude for active listening and critical thinking, I ensure tasks are approached analytically, leading to accurate problem-solving and decision-making. I am confident in my ability to effectively communicate the features and benefits of HERMETIC pump models to potential customers, while also providing technical advice and support throughout the sales process._x000D_
+_x000D_
+I am excited about the opportunity to leverage my skills and enthusiasm for engineering in a dynamic sales environment at HERMETIC-Pumps Singapore. Thank you for considering my application. I look forward to the possibility of discussing how I can contribute to your team._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -493,7 +487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="173.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="172.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -506,22 +500,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="288" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>

--- a/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77451E12-A938-43F5-95FD-13E7AEA56538}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{112F84F3-7689-46A9-B419-EAFAC057462A}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
   </bookViews>
@@ -41,19 +41,19 @@
     <t>Email Applications</t>
   </si>
   <si>
-    <t>Subject: Application for Front-End Developer/Software Intern Position at Aevice Health_x000D_
+    <t>Subject: Application for Front-End Developer Internship Position_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I am a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Front-End Developer/Software Intern position at Aevice Health through Glints.com, and I am writing to express my strong interest in joining your team._x000D_
-_x000D_
-My enthusiasm for this opportunity stems from a deep-seated desire to learn from experienced engineers and to follow in my father's footsteps, who holds a master's degree in engineering. I am particularly drawn to Aevice Health's innovative approach to healthcare technology and its commitment to creating solutions for real-world problems._x000D_
-_x000D_
-In terms of technical skills, I bring proficiency in Python, Java, and C, with hands-on experience in developing systems, implementing embedded systems, and utilizing libraries such as NumPy and Matplotlib for data visualization. My background in collaborative teamwork, coupled with strong communication and problem-solving abilities, ensures that I can contribute effectively to your team dynamic._x000D_
-_x000D_
-I am confident that my technical acumen, coupled with my soft skills, align well with the responsibilities and requirements outlined for the Front-End Developer Intern role at Aevice Health. I am eager to participate in the full development lifecycle, gain hands-on experience in mobile application development, and contribute to the success of your team._x000D_
-_x000D_
-I am available for a flexible internship period from June to December 2024 and have included a link to my GitHub profile in my application. Thank you for considering my candidacy. I look forward to the possibility of discussing how my skills and experiences can benefit Aevice Health further._x000D_
+I am writing to express my interest in the Front-End Developer Internship position at Aevice Health, as discovered on Glints.com. As a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I am deeply motivated to learn from experienced engineers and continue my journey in software development, inspired by my father's legacy in engineering._x000D_
+_x000D_
+With a solid foundation in Python, Java, and C, I have honed my technical skills through various projects. In Python, I've utilized libraries like NumPy and Matplotlib for enhanced data visualization. My experience in Java includes developing systems following the MVC pattern, emphasizing CRUD operations and user management. Additionally, I've worked on embedded systems in C, focusing on hardware-software integration. These experiences have equipped me with a strong understanding of software development principles and practices._x000D_
+_x000D_
+Beyond technical proficiency, I bring a range of soft skills essential for collaborative environments. I excel in teamwork, leveraging active listening and effective communication to ensure project success. My critical thinking abilities enable me to analyze problems and make informed decisions, ensuring tasks are completed accurately and efficiently. I am eager to apply these skills within a dynamic team environment at Aevice Health._x000D_
+_x000D_
+I am excited about the opportunity to contribute to Aevice Health's mission of revolutionizing healthcare through innovative technology. The prospect of working in a fast-paced startup environment, alongside passionate professionals, aligns perfectly with my career aspirations. I am confident that my technical expertise and interpersonal skills make me a valuable addition to your team._x000D_
+_x000D_
+Thank you for considering my application. I look forward to the possibility of discussing how I can contribute to Aevice Health's success. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -63,31 +63,31 @@
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I recently came across the Frontend Web Developer position at El Pando Pte Ltd through Glints.com. As a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I am driven by a strong desire to learn from experienced engineers, inspired particularly by my father's career in engineering._x000D_
-_x000D_
-My technical skills include proficiency in Python for data visualization, Java for system development following the MVC pattern, and C for embedded systems design. These experiences have honed my problem-solving abilities and fostered a keen eye for detail, ensuring tasks are completed with precision. Additionally, I possess a knack for collaborative teamwork and effective communication, essential for thriving in dynamic work environments._x000D_
-_x000D_
-What excites me about the opportunity at El Pando Pte Ltd is the chance to immerse myself in monumental government projects while learning from seasoned professionals in the field. I am eager to contribute my skills in HTML, CSS, and JavaScript, and to further develop my expertise in frontend development frameworks such as React and Angular. Moreover, the company's commitment to noteworthy projects and fostering a supportive work culture aligns perfectly with my career aspirations._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the possibility of joining your team and contributing to El Pando Pte Ltd's success. Please find attached my resume for your review. _x000D_
+I am writing to express my interest in the Frontend Web Developer position at El Pando Pte Ltd, which I discovered through Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I am drawn to this opportunity due to my strong desire to learn from experienced engineers, inspired by my father who holds a master's in engineering, and contribute to impactful projects in a dynamic environment._x000D_
+_x000D_
+With a solid foundation in technical skills, I have experience in Python for data visualization, Java for system development following MVC architecture, and C for embedded systems design and integration. These skills have equipped me with a problem-solving mindset and a knack for collaborative teamwork. Moreover, my proactive approach and strong communication skills enable me to effectively engage with team members and stakeholders, ensuring tasks are completed accurately and efficiently._x000D_
+_x000D_
+In addition to my technical proficiency, I bring a passion for design and a curiosity for emerging web trends, aligning with the role's emphasis on frontend development and staying abreast of industry innovations. I am eager to contribute my skills to El Pando's noteworthy projects, collaborate with experienced developers, and embrace the vibrant culture of continuous learning and growth._x000D_
+_x000D_
+Thank you for considering my application. I am enthusiastic about the opportunity to further discuss how my background, skills, and motivations align with the needs of El Pando Pte Ltd. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Network &amp; Systems Engineer Position at eVantage Technology Pte Ltd_x000D_
+    <t>Subject: Application for Network &amp; Systems Engineer Position_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I am writing to express my interest in the Network &amp; Systems Engineer position at eVantage Technology Pte Ltd, as discovered on Glints.com. With a strong desire to learn from experienced engineers and following in my father's footsteps in engineering, I am excited about the opportunity to contribute to your team._x000D_
-_x000D_
-In my second year of study pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I have honed my technical skills, including proficiency in Python for data visualization, Java for system development, and C for embedded systems integration. Moreover, my collaborative teamwork experience and critical thinking abilities align well with the requirements of this role, ensuring tasks are completed accurately and efficiently._x000D_
-_x000D_
-My technical expertise extends to troubleshooting end-user equipment and configuring network infrastructure, complemented by a solid foundation in AWS and Azure. With a keen eye for problem-solving and exceptional stakeholder management skills, I am well-equipped to serve as a point of escalation for complex technical issues, own client relationships, and contribute to pre-sales activities with technical insights._x000D_
-_x000D_
-I am particularly drawn to eVantage's commitment to quality support and service delivery, and I am eager to leverage my skills to contribute to the planning and implementation of IT solutions for your clients. My willingness to work after office hours if required underscores my dedication to ensuring timely and effective resolution of technical issues._x000D_
-_x000D_
-Thank you for considering my application. I look forward to the opportunity to discuss how my skills and experiences align with the needs of eVantage Technology Pte Ltd. _x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I recently came across the Network &amp; Systems Engineer position at eVantage Technology Pte Ltd through Glints.com. With a strong desire to learn from experienced engineers and inspired by my father's engineering background, I am excited to apply for this role._x000D_
+_x000D_
+In my second year pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I have honed my technical skills through hands-on experience and academic coursework. Proficient in Python, Java, and C, I have developed systems implementing CRUD operations, user management, and embedded systems integration. Moreover, my ability to leverage Python libraries like NumPy and Matplotlib for data visualization enhances my problem-solving capabilities._x000D_
+_x000D_
+Complementing my technical expertise, I possess exceptional soft skills essential for effective collaboration and communication in team environments. Skilled in active listening and interpersonal communication, I excel in collaborative teamwork, ensuring tasks are completed accurately and efficiently. Moreover, my critical thinking abilities enable me to analyze problems systematically and make informed decisions to achieve optimal outcomes._x000D_
+_x000D_
+With a keen interest in IT solutions and a track record of academic excellence and practical application, I am confident in my ability to contribute effectively to eVantage Technology's engineering team. I am eager to leverage my skills to provide quality support to clients, participate in project planning and implementation, and contribute to the success of your organization._x000D_
+_x000D_
+Thank you for considering my application. I am looking forward to the opportunity to further discuss how my skills and experiences align with the needs of eVantage Technology Pte Ltd. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -97,31 +97,31 @@
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. I am writing to express my interest in the Sales Engineer position at Hermetic-Pumps Singapore, as advertised on Glints.com. With a strong desire to learn from experienced engineers and inspired by my father's engineering background, I am eager to contribute to your esteemed company and grow professionally in the field of pump technology._x000D_
-_x000D_
-Currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I bring a unique blend of technical proficiency and soft skills to this role. My technical expertise includes proficiency in Python, Java, and C, along with hands-on experience in system development and embedded systems integration. I have demonstrated my ability to apply these skills effectively in various projects, showcasing my adaptability and problem-solving capabilities._x000D_
-_x000D_
-Moreover, my collaborative teamwork ethos and strong interpersonal communication skills align well with the collaborative environment at Hermetic-Pumps Singapore. I possess a keen ability to listen actively, analyze situations critically, and make informed decisions to ensure tasks are completed with precision and efficiency._x000D_
-_x000D_
-I am particularly excited about the opportunity to develop an in-depth understanding of pump technology and its applications across diverse industries. My enthusiasm for learning coupled with my technical acumen positions me well to collaborate with the sales team and effectively communicate the features, benefits, and limitations of our pump solutions to potential customers._x000D_
-_x000D_
-In conclusion, I am eager to bring my blend of technical prowess and soft skills to the Sales Engineer role at Hermetic-Pumps Singapore. I am confident in my ability to contribute positively to your team and drive sales growth while providing exceptional post-sales support to customers._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, now in my second year. I came across the Sales Engineer role at Hermetic-Pumps Singapore on Glints.com and was immediately drawn to the opportunity. My interest in this position stems from a strong desire to learn from experienced engineers and to follow in my father's footsteps, who holds a master's degree in engineering._x000D_
+_x000D_
+My technical skills, honed through my academic journey and practical projects, are well-aligned with the requirements of the Sales Engineer role. Proficient in Python, Java, and C, I have developed systems and implemented solutions that require a deep understanding of both hardware and software integration. Moreover, my experience in Python includes utilizing libraries like NumPy and Matplotlib for enhanced data visualization, while in Java, I've implemented CRUD systems following the MVC pattern. These technical competencies position me well to grasp the complexities of pump technology and effectively communicate their benefits to potential customers._x000D_
+_x000D_
+In addition to my technical proficiency, my soft skills further complement my suitability for this role. I excel in collaborative teamwork, leveraging strong active listening and interpersonal communication skills to foster productive working relationships. My ability to think critically and analytically enables me to solve problems efficiently and make informed decisions, ensuring tasks are completed with precision and accuracy. These skills are crucial in engaging with customers, understanding their fluid handling challenges, and providing tailored technical advice and solutions._x000D_
+_x000D_
+I am excited about the opportunity to contribute to Hermetic-Pumps Singapore and am confident that my blend of technical expertise and soft skills will enable me to excel in the Sales Engineer role. Thank you for considering my application. I look forward to the possibility of discussing how my background, skills, and motivations align with the needs of your team. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Mechanical Sales Engineer Position_x000D_
+    <t>Subject: Application for Mechanical Sales Engineer Position at Hermetic-Pumps Singapore_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I am writing to express my interest in the Mechanical Sales Engineer position at HERMETIC-Pumps Singapore, as advertised on Glints.com. With a strong desire to learn from experienced engineers and a personal motivation stemming from my father's engineering background, I am eager to contribute to your esteemed company._x000D_
-_x000D_
-Currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I have honed my technical skills in Python, Java, and C programming, focusing on data visualization, system development, and embedded systems integration. My experience in implementing CRUD operations and user management systems demonstrates my proficiency in software development, while my ability to design and integrate hardware and software showcases my versatility in technical problem-solving._x000D_
-_x000D_
-In addition to my technical expertise, I bring to the table strong soft skills essential for collaborative teamwork and effective communication. With a keen aptitude for active listening and critical thinking, I ensure tasks are approached analytically, leading to accurate problem-solving and decision-making. I am confident in my ability to effectively communicate the features and benefits of HERMETIC pump models to potential customers, while also providing technical advice and support throughout the sales process._x000D_
-_x000D_
-I am excited about the opportunity to leverage my skills and enthusiasm for engineering in a dynamic sales environment at HERMETIC-Pumps Singapore. Thank you for considering my application. I look forward to the possibility of discussing how I can contribute to your team._x000D_
+I am writing to express my interest in the Mechanical Sales Engineer position at Hermetic-Pumps Singapore, as discovered on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2. My aspiration to join your esteemed company stems from a strong desire to learn from experienced engineers, influenced by my father's footsteps, who holds a Master's in engineering._x000D_
+_x000D_
+Despite my background in computer engineering, my technical acumen extends beyond programming languages. Proficient in Python, Java, and C, I have leveraged my skills to develop systems ranging from data visualization to embedded systems integration. Moreover, my collaborative teamwork skills, honed through various projects, align seamlessly with the collaborative nature of the role, facilitating effective communication and problem-solving._x000D_
+_x000D_
+My exposure to Python has equipped me with data visualization capabilities using libraries such as NumPy and Matplotlib, while my Java proficiency extends to implementing CRUD systems following the MVC pattern. Additionally, my experience in C involves designing and integrating hardware and software for embedded systems, demonstrating adaptability and a keen analytical mindset crucial for addressing fluid handling challenges._x000D_
+_x000D_
+Beyond technical expertise, I bring to the table strong interpersonal communication skills, critical thinking abilities, and a meticulous approach to task completion. These soft skills, coupled with my technical proficiency, position me well to excel in creating effective sales strategies, communicating product benefits, and providing tailored solutions to customer needs._x000D_
+_x000D_
+In conclusion, I am enthusiastic about the opportunity to contribute to the success of Hermetic-Pumps Singapore as a Mechanical Sales Engineer. My blend of technical prowess and soft skills makes me a valuable asset to your team. Thank you for considering my application. I look forward to the possibility of discussing how I can contribute to your team further._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -487,7 +487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="172.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="171.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>

--- a/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{112F84F3-7689-46A9-B419-EAFAC057462A}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4460674-0E73-4984-84EB-7E0BD29A0DD9}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
   </bookViews>
@@ -41,87 +41,89 @@
     <t>Email Applications</t>
   </si>
   <si>
-    <t>Subject: Application for Front-End Developer Internship Position_x000D_
+    <t>Subject: Application for Front-End Developer/Software Intern Position at Aevice Health_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I am writing to express my interest in the Front-End Developer Internship position at Aevice Health, as discovered on Glints.com. As a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I am deeply motivated to learn from experienced engineers and continue my journey in software development, inspired by my father's legacy in engineering._x000D_
-_x000D_
-With a solid foundation in Python, Java, and C, I have honed my technical skills through various projects. In Python, I've utilized libraries like NumPy and Matplotlib for enhanced data visualization. My experience in Java includes developing systems following the MVC pattern, emphasizing CRUD operations and user management. Additionally, I've worked on embedded systems in C, focusing on hardware-software integration. These experiences have equipped me with a strong understanding of software development principles and practices._x000D_
-_x000D_
-Beyond technical proficiency, I bring a range of soft skills essential for collaborative environments. I excel in teamwork, leveraging active listening and effective communication to ensure project success. My critical thinking abilities enable me to analyze problems and make informed decisions, ensuring tasks are completed accurately and efficiently. I am eager to apply these skills within a dynamic team environment at Aevice Health._x000D_
-_x000D_
-I am excited about the opportunity to contribute to Aevice Health's mission of revolutionizing healthcare through innovative technology. The prospect of working in a fast-paced startup environment, alongside passionate professionals, aligns perfectly with my career aspirations. I am confident that my technical expertise and interpersonal skills make me a valuable addition to your team._x000D_
-_x000D_
-Thank you for considering my application. I look forward to the possibility of discussing how I can contribute to Aevice Health's success. _x000D_
+I am writing to express my interest in the Front-End Developer/Software Intern position at Aevice Health, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I discovered this opportunity through Glints.com and was immediately drawn to Aevice Health due to its innovative approach to improving the lives of patients with chronic respiratory diseases, a cause close to my heart. Moreover, I am motivated to apply for this role as it aligns with my strong desire to learn from experienced engineers and follow in my father's footsteps, who holds a master's degree in engineering._x000D_
+_x000D_
+In terms of technical skills, I bring a robust foundation in programming languages such as Python, Java, and C. In Python, I have experience leveraging libraries like NumPy and Matplotlib for enhanced data visualization. My proficiency in Java extends to developing systems following the MVC pattern, implementing CRUD operations, and managing user interactions. Additionally, my expertise in C includes designing and integrating hardware and software for embedded systems. These technical skills position me well to contribute effectively to the development, testing, and maintenance of mobile and web applications at Aevice Health._x000D_
+_x000D_
+Complementing my technical abilities are my soft skills, which include a collaborative approach to teamwork, effective communication, and critical problem-solving. I excel in actively listening to team members' perspectives and offering valuable insights to drive project success. My ability to think critically and analytically ensures tasks are completed with precision and accuracy, contributing to a seamless development process. I am eager to further cultivate these skills within the dynamic environment at Aevice Health, where innovation and creativity are celebrated._x000D_
+_x000D_
+I am available for the flexible start/end dates specified in the job description and have included my GitHub profile in my application for your reference. I am excited about the opportunity to contribute to Aevice Health's mission and eager to gain hands-on experience in the software development lifecycle. Thank you for considering my application. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Frontend Web Developer Position at El Pando Pte Ltd_x000D_
+    <t>Subject: Application for Software Engineer - Remote Position_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I am writing to express my interest in the Frontend Web Developer position at El Pando Pte Ltd, which I discovered through Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I am drawn to this opportunity due to my strong desire to learn from experienced engineers, inspired by my father who holds a master's in engineering, and contribute to impactful projects in a dynamic environment._x000D_
-_x000D_
-With a solid foundation in technical skills, I have experience in Python for data visualization, Java for system development following MVC architecture, and C for embedded systems design and integration. These skills have equipped me with a problem-solving mindset and a knack for collaborative teamwork. Moreover, my proactive approach and strong communication skills enable me to effectively engage with team members and stakeholders, ensuring tasks are completed accurately and efficiently._x000D_
-_x000D_
-In addition to my technical proficiency, I bring a passion for design and a curiosity for emerging web trends, aligning with the role's emphasis on frontend development and staying abreast of industry innovations. I am eager to contribute my skills to El Pando's noteworthy projects, collaborate with experienced developers, and embrace the vibrant culture of continuous learning and growth._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the opportunity to further discuss how my background, skills, and motivations align with the needs of El Pando Pte Ltd. _x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I am writing to express my interest in the Software Engineer position at Kopi Date, as advertised on Glints.com. As a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I am deeply motivated to learn from experienced engineers and continue the legacy set by my father, who holds a master's degree in engineering._x000D_
+_x000D_
+My journey into the world of programming began with Python, where I gained proficiency in utilizing libraries such as NumPy and Matplotlib for advanced data visualization. Additionally, my experience with Java involved developing systems following the MVC pattern, focusing on CRUD operations and user management. Furthermore, I have a solid foundation in C, particularly in implementing embedded systems that integrate hardware and software seamlessly._x000D_
+_x000D_
+Beyond technical expertise, I bring a set of soft skills that complement my technical capabilities. I excel in collaborative teamwork, leveraging strong active listening and interpersonal communication skills to foster a cohesive work environment. My ability to think critically and analytically enables me to solve problems effectively, ensuring tasks are completed with precision and accuracy._x000D_
+_x000D_
+I am particularly drawn to Kopi Date's commitment to developing user features, optimizing operations, and enhancing machine learning algorithms. My skills in JavaScript, Node.js, and Firebase align well with the role's requirements, and I am eager to contribute to the development of innovative solutions while continuously learning and growing within your dynamic team._x000D_
+_x000D_
+Thank you for considering my application. I am enthusiastic about the opportunity to further discuss how my skills and experiences align with the needs of Kopi Date. Please find my attached resume for more details. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Network &amp; Systems Engineer Position_x000D_
+    <t>Subject: Application for Junior Software Developer Position at Mavericks Consulting_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I recently came across the Network &amp; Systems Engineer position at eVantage Technology Pte Ltd through Glints.com. With a strong desire to learn from experienced engineers and inspired by my father's engineering background, I am excited to apply for this role._x000D_
-_x000D_
-In my second year pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I have honed my technical skills through hands-on experience and academic coursework. Proficient in Python, Java, and C, I have developed systems implementing CRUD operations, user management, and embedded systems integration. Moreover, my ability to leverage Python libraries like NumPy and Matplotlib for data visualization enhances my problem-solving capabilities._x000D_
-_x000D_
-Complementing my technical expertise, I possess exceptional soft skills essential for effective collaboration and communication in team environments. Skilled in active listening and interpersonal communication, I excel in collaborative teamwork, ensuring tasks are completed accurately and efficiently. Moreover, my critical thinking abilities enable me to analyze problems systematically and make informed decisions to achieve optimal outcomes._x000D_
-_x000D_
-With a keen interest in IT solutions and a track record of academic excellence and practical application, I am confident in my ability to contribute effectively to eVantage Technology's engineering team. I am eager to leverage my skills to provide quality support to clients, participate in project planning and implementation, and contribute to the success of your organization._x000D_
-_x000D_
-Thank you for considering my application. I am looking forward to the opportunity to further discuss how my skills and experiences align with the needs of eVantage Technology Pte Ltd. _x000D_
+I hope this email finds you well. I am writing to express my keen interest in the Junior Software Developer position at Mavericks Consulting, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Singapore, in my second year._x000D_
+_x000D_
+My journey into the world of software development has been inspired by my father, who holds a master's degree in engineering. I am eager to follow in his footsteps and learn from experienced engineers like those at Mavericks Consulting. My main motivation for applying is to immerse myself in a dynamic environment where I can continuously grow and contribute to meaningful projects._x000D_
+_x000D_
+With a solid foundation in technical skills, I have hands-on experience in Python, utilizing libraries such as NumPy and Matplotlib for effective data visualization. In Java, I have developed systems following the MVC pattern, focusing on CRUD operations and user management. Additionally, my expertise extends to C, where I have worked on embedded systems, emphasizing hardware-software integration and design._x000D_
+_x000D_
+Complementing my technical abilities are my soft skills, honed through collaborative teamwork and effective communication. I excel in active listening, critical thinking, and problem-solving, ensuring tasks are executed with precision and accuracy. My commitment to continuous improvement aligns with Mavericks' culture of learning and innovation._x000D_
+_x000D_
+I am excited about the opportunity to contribute to Mavericks Consulting and leverage my skills to drive impactful solutions. I am eager to undergo the application process outlined and am available at your earliest convenience for further discussions._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Sales Engineer Position at Hermetic-Pumps Singapore_x000D_
+    <t>Subject: Application for Intern - Bids and Proposal Position_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, now in my second year. I came across the Sales Engineer role at Hermetic-Pumps Singapore on Glints.com and was immediately drawn to the opportunity. My interest in this position stems from a strong desire to learn from experienced engineers and to follow in my father's footsteps, who holds a master's degree in engineering._x000D_
-_x000D_
-My technical skills, honed through my academic journey and practical projects, are well-aligned with the requirements of the Sales Engineer role. Proficient in Python, Java, and C, I have developed systems and implemented solutions that require a deep understanding of both hardware and software integration. Moreover, my experience in Python includes utilizing libraries like NumPy and Matplotlib for enhanced data visualization, while in Java, I've implemented CRUD systems following the MVC pattern. These technical competencies position me well to grasp the complexities of pump technology and effectively communicate their benefits to potential customers._x000D_
-_x000D_
-In addition to my technical proficiency, my soft skills further complement my suitability for this role. I excel in collaborative teamwork, leveraging strong active listening and interpersonal communication skills to foster productive working relationships. My ability to think critically and analytically enables me to solve problems efficiently and make informed decisions, ensuring tasks are completed with precision and accuracy. These skills are crucial in engaging with customers, understanding their fluid handling challenges, and providing tailored technical advice and solutions._x000D_
-_x000D_
-I am excited about the opportunity to contribute to Hermetic-Pumps Singapore and am confident that my blend of technical expertise and soft skills will enable me to excel in the Sales Engineer role. Thank you for considering my application. I look forward to the possibility of discussing how my background, skills, and motivations align with the needs of your team. _x000D_
+I am writing to express my interest in the Intern - Bids and Proposal position at Mgg Software Pte Ltd, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2. The opportunity to learn from experienced professionals aligns with my aspirations, particularly inspired by my father's engineering background._x000D_
+_x000D_
+My journey in discovering this role stems from a strong desire to broaden my skill set and delve into the intricacies of business strategies within a competitive environment. With a foundation in Python, Java, and C, I have honed my technical abilities, utilizing libraries like NumPy and Matplotlib for data visualization, implementing MVC patterns for system development, and integrating hardware and software in embedded systems._x000D_
+_x000D_
+Beyond technical proficiency, my experiences have cultivated soft skills crucial for collaborative environments. I excel in teamwork, leveraging active listening and interpersonal communication to foster productive relationships. My analytical prowess enables me to think critically, ensuring tasks are executed meticulously, meeting tight deadlines with precision._x000D_
+_x000D_
+Joining Mgg Software Pte Ltd as an Intern - Bids and Proposal presents an exciting opportunity to immerse myself in end-to-end tender activities, contributing to the company's success while furthering my professional growth. I am eager to apply my blend of technical expertise and soft skills to support the commercial team in identifying, vetting, and crafting compelling tender proposals._x000D_
+_x000D_
+Thank you for considering my application. I am enthusiastic about the prospect of contributing to Mgg Software Pte Ltd and am looking forward to the opportunity to discuss how my skills and experiences align with the company's vision._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Mechanical Sales Engineer Position at Hermetic-Pumps Singapore_x000D_
+    <t>Subject: Application for Software Engineer Position at Monstyr Pte Ltd_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I am writing to express my interest in the Mechanical Sales Engineer position at Hermetic-Pumps Singapore, as discovered on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2. My aspiration to join your esteemed company stems from a strong desire to learn from experienced engineers, influenced by my father's footsteps, who holds a Master's in engineering._x000D_
-_x000D_
-Despite my background in computer engineering, my technical acumen extends beyond programming languages. Proficient in Python, Java, and C, I have leveraged my skills to develop systems ranging from data visualization to embedded systems integration. Moreover, my collaborative teamwork skills, honed through various projects, align seamlessly with the collaborative nature of the role, facilitating effective communication and problem-solving._x000D_
-_x000D_
-My exposure to Python has equipped me with data visualization capabilities using libraries such as NumPy and Matplotlib, while my Java proficiency extends to implementing CRUD systems following the MVC pattern. Additionally, my experience in C involves designing and integrating hardware and software for embedded systems, demonstrating adaptability and a keen analytical mindset crucial for addressing fluid handling challenges._x000D_
-_x000D_
-Beyond technical expertise, I bring to the table strong interpersonal communication skills, critical thinking abilities, and a meticulous approach to task completion. These soft skills, coupled with my technical proficiency, position me well to excel in creating effective sales strategies, communicating product benefits, and providing tailored solutions to customer needs._x000D_
-_x000D_
-In conclusion, I am enthusiastic about the opportunity to contribute to the success of Hermetic-Pumps Singapore as a Mechanical Sales Engineer. My blend of technical prowess and soft skills makes me a valuable asset to your team. Thank you for considering my application. I look forward to the possibility of discussing how I can contribute to your team further._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I am currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, now in my second year. I came across the Software Engineer position at Monstyr Pte Ltd on Glints.com, and I am writing to express my keen interest in joining your team._x000D_
+_x000D_
+My motivation for applying stems from a strong desire to learn from experienced engineers, coupled with a personal aspiration to follow in my father's footsteps, who holds a master's degree in engineering. My technical background includes proficiency in Python, where I've leveraged libraries like NumPy and Matplotlib for enhanced data visualization, as well as Java, where I've developed systems following the MVC pattern. Additionally, I have experience in C, particularly in embedded systems design and integration._x000D_
+_x000D_
+In terms of soft skills, I excel in collaborative teamwork, with a knack for active listening and effective interpersonal communication. I bring a critical and analytical thinking approach to problem-solving, ensuring tasks are completed with precision and accuracy. My goal is to contribute effectively to a dynamic team environment, leveraging both my technical expertise and soft skills to drive impactful outcomes._x000D_
+_x000D_
+I am excited about the opportunity to contribute to Monstyr's mission of creating O2O synergy through innovative solutions. The chance to work across the stack, from frontend to backend, on a public-facing web/mobile app aligns perfectly with my career aspirations. I am eager to tackle the challenges and learning opportunities that come with being part of a startup in its early stages, and I am committed to delivering high-quality results._x000D_
+_x000D_
+Thank you for considering my application. I am looking forward to the possibility of discussing how my skills and experiences align with the needs of your team further. Please find my expected salary indicated in my attached resume. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -487,7 +489,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="171.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="168.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -495,12 +497,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>

--- a/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4460674-0E73-4984-84EB-7E0BD29A0DD9}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8303F5F6-A23D-4EE5-B80D-38E57858E74A}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
   </bookViews>
@@ -41,89 +41,93 @@
     <t>Email Applications</t>
   </si>
   <si>
-    <t>Subject: Application for Front-End Developer/Software Intern Position at Aevice Health_x000D_
+    <t>Subject: Application for Front-End Developer Internship at Aevice Health_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I am writing to express my interest in the Front-End Developer/Software Intern position at Aevice Health, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I discovered this opportunity through Glints.com and was immediately drawn to Aevice Health due to its innovative approach to improving the lives of patients with chronic respiratory diseases, a cause close to my heart. Moreover, I am motivated to apply for this role as it aligns with my strong desire to learn from experienced engineers and follow in my father's footsteps, who holds a master's degree in engineering._x000D_
-_x000D_
-In terms of technical skills, I bring a robust foundation in programming languages such as Python, Java, and C. In Python, I have experience leveraging libraries like NumPy and Matplotlib for enhanced data visualization. My proficiency in Java extends to developing systems following the MVC pattern, implementing CRUD operations, and managing user interactions. Additionally, my expertise in C includes designing and integrating hardware and software for embedded systems. These technical skills position me well to contribute effectively to the development, testing, and maintenance of mobile and web applications at Aevice Health._x000D_
-_x000D_
-Complementing my technical abilities are my soft skills, which include a collaborative approach to teamwork, effective communication, and critical problem-solving. I excel in actively listening to team members' perspectives and offering valuable insights to drive project success. My ability to think critically and analytically ensures tasks are completed with precision and accuracy, contributing to a seamless development process. I am eager to further cultivate these skills within the dynamic environment at Aevice Health, where innovation and creativity are celebrated._x000D_
-_x000D_
-I am available for the flexible start/end dates specified in the job description and have included my GitHub profile in my application for your reference. I am excited about the opportunity to contribute to Aevice Health's mission and eager to gain hands-on experience in the software development lifecycle. Thank you for considering my application. _x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I am currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Front-End Developer Internship opportunity at Aevice Health on Glints.com, and I am writing to express my strong interest in joining your team._x000D_
+_x000D_
+What drew me to Aevice Health is its commitment to innovation in healthcare technology, coupled with a culture that encourages creativity and ownership. As someone with a deep-rooted passion for learning and a desire to follow in my father's footsteps, who holds a master's in engineering, I am eager to contribute to Aevice Health's mission of improving the lives of patients with chronic respiratory diseases._x000D_
+_x000D_
+With a solid foundation in programming languages such as Python, Java, and C, I have experience in developing systems, implementing embedded systems, and utilizing libraries for data visualization. Moreover, my exposure to collaborative teamwork has honed my communication and problem-solving skills, ensuring tasks are completed with precision and efficiency._x000D_
+_x000D_
+I am particularly excited about the opportunity to translate UI/UX wireframes into front-end code, develop responsive web and mobile applications, and contribute to enhancing app usability through micro-interactions and animations. I am confident that my technical skills, coupled with my ability to work effectively in a team, make me a strong candidate for this role._x000D_
+_x000D_
+I am available for a flexible internship period from June to December 2024 and have included a link to my GitHub profile in my application. I am eager to gain hands-on experience in the full development lifecycle and further develop my skills in mobile application development._x000D_
+_x000D_
+Thank you for considering my application. I look forward to the opportunity to discuss how my skills and experiences align with the needs of Aevice Health. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Software Engineer - Remote Position_x000D_
+    <t>Subject: Application for Singapore - Senior Engineering Lead (Full-Remote) Position at Aha AI_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I am writing to express my interest in the Software Engineer position at Kopi Date, as advertised on Glints.com. As a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic, I am deeply motivated to learn from experienced engineers and continue the legacy set by my father, who holds a master's degree in engineering._x000D_
-_x000D_
-My journey into the world of programming began with Python, where I gained proficiency in utilizing libraries such as NumPy and Matplotlib for advanced data visualization. Additionally, my experience with Java involved developing systems following the MVC pattern, focusing on CRUD operations and user management. Furthermore, I have a solid foundation in C, particularly in implementing embedded systems that integrate hardware and software seamlessly._x000D_
-_x000D_
-Beyond technical expertise, I bring a set of soft skills that complement my technical capabilities. I excel in collaborative teamwork, leveraging strong active listening and interpersonal communication skills to foster a cohesive work environment. My ability to think critically and analytically enables me to solve problems effectively, ensuring tasks are completed with precision and accuracy._x000D_
-_x000D_
-I am particularly drawn to Kopi Date's commitment to developing user features, optimizing operations, and enhancing machine learning algorithms. My skills in JavaScript, Node.js, and Firebase align well with the role's requirements, and I am eager to contribute to the development of innovative solutions while continuously learning and growing within your dynamic team._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the opportunity to further discuss how my skills and experiences align with the needs of Kopi Date. Please find my attached resume for more details. _x000D_
+I am writing to express my interest in the Singapore - Senior Engineering Lead (Full-Remote) position at Aha AI, as found on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. My passion for engineering stems from my father's influence, who holds a master's degree in engineering, igniting in me a strong desire to learn from experienced professionals in the field._x000D_
+_x000D_
+With a solid foundation in technical skills, I bring proficiency in Python, leveraging libraries like NumPy and Matplotlib for data visualization, Java for developing systems adhering to the MVC pattern, and C for embedded systems integration. Moreover, my collaborative nature and adeptness in active listening and communication complement my technical acumen, ensuring seamless teamwork and problem-solving._x000D_
+_x000D_
+My experience in collaborative teamwork, combined with critical thinking and analytical prowess, equips me to contribute effectively to Aha AI's innovative projects. I am committed to delivering tasks with precision and accuracy, aligning with Aha AI's culture of practicality and creativity._x000D_
+_x000D_
+Thank you for considering my application. I am eager to bring my skills and enthusiasm to Aha AI's dynamic team. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Junior Software Developer Position at Mavericks Consulting_x000D_
+    <t>Subject: Application for Remote Software Engineer Role at Atomionics_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. I am writing to express my keen interest in the Junior Software Developer position at Mavericks Consulting, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Singapore, in my second year._x000D_
-_x000D_
-My journey into the world of software development has been inspired by my father, who holds a master's degree in engineering. I am eager to follow in his footsteps and learn from experienced engineers like those at Mavericks Consulting. My main motivation for applying is to immerse myself in a dynamic environment where I can continuously grow and contribute to meaningful projects._x000D_
-_x000D_
-With a solid foundation in technical skills, I have hands-on experience in Python, utilizing libraries such as NumPy and Matplotlib for effective data visualization. In Java, I have developed systems following the MVC pattern, focusing on CRUD operations and user management. Additionally, my expertise extends to C, where I have worked on embedded systems, emphasizing hardware-software integration and design._x000D_
-_x000D_
-Complementing my technical abilities are my soft skills, honed through collaborative teamwork and effective communication. I excel in active listening, critical thinking, and problem-solving, ensuring tasks are executed with precision and accuracy. My commitment to continuous improvement aligns with Mavericks' culture of learning and innovation._x000D_
-_x000D_
-I am excited about the opportunity to contribute to Mavericks Consulting and leverage my skills to drive impactful solutions. I am eager to undergo the application process outlined and am available at your earliest convenience for further discussions._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2. I recently came across the opportunity for the Remote Software Engineer position at Atomionics through Glints.com, and I am writing to express my strong interest in the role._x000D_
+_x000D_
+What particularly excites me about this position is the opportunity to learn from experienced engineers and contribute to cutting-edge technology, especially in the realm of quantum sensors. My passion for software engineering stems from a desire to follow in my father's footsteps, who has his masters in engineering, and I am eager to immerse myself in a dynamic environment where innovation thrives._x000D_
+_x000D_
+With a solid foundation in Python, Java, and C programming languages, I have honed my skills through hands-on projects. In Python, I have experience importing libraries like NumPy and Matplotlib for advanced data visualization, while in Java, I have developed systems following the MVC pattern. Additionally, my proficiency in C extends to embedded systems, focusing on hardware-software integration._x000D_
+_x000D_
+Beyond technical expertise, I bring to the table strong collaborative teamwork skills, coupled with active listening and effective communication abilities. I approach problem-solving with a critical and analytical mindset, ensuring tasks are completed with precision and efficiency._x000D_
+_x000D_
+I am eager to contribute my skills to Atomionics, where I see an opportunity to learn and grow while making meaningful contributions to the advancement of quantum technology. I am confident that my technical proficiency and soft skills make me a strong fit for this role._x000D_
+_x000D_
+Thank you for considering my application. I am looking forward to the possibility of discussing how I can contribute to Atomionics further._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Intern - Bids and Proposal Position_x000D_
+    <t>Subject: Application for Electronics Engineering Internship Position at Atomionics_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I am writing to express my interest in the Intern - Bids and Proposal position at Mgg Software Pte Ltd, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2. The opportunity to learn from experienced professionals aligns with my aspirations, particularly inspired by my father's engineering background._x000D_
-_x000D_
-My journey in discovering this role stems from a strong desire to broaden my skill set and delve into the intricacies of business strategies within a competitive environment. With a foundation in Python, Java, and C, I have honed my technical abilities, utilizing libraries like NumPy and Matplotlib for data visualization, implementing MVC patterns for system development, and integrating hardware and software in embedded systems._x000D_
-_x000D_
-Beyond technical proficiency, my experiences have cultivated soft skills crucial for collaborative environments. I excel in teamwork, leveraging active listening and interpersonal communication to foster productive relationships. My analytical prowess enables me to think critically, ensuring tasks are executed meticulously, meeting tight deadlines with precision._x000D_
-_x000D_
-Joining Mgg Software Pte Ltd as an Intern - Bids and Proposal presents an exciting opportunity to immerse myself in end-to-end tender activities, contributing to the company's success while furthering my professional growth. I am eager to apply my blend of technical expertise and soft skills to support the commercial team in identifying, vetting, and crafting compelling tender proposals._x000D_
-_x000D_
-Thank you for considering my application. I am enthusiastic about the prospect of contributing to Mgg Software Pte Ltd and am looking forward to the opportunity to discuss how my skills and experiences align with the company's vision._x000D_
+I hope this email finds you well. I am writing to express my keen interest in the Electronics Engineering Internship position at Atomionics, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, in my second year of study._x000D_
+_x000D_
+My fascination with electronics and a strong desire to learn from experienced engineers, coupled with a personal connection to the field through my father, who holds a Master's in Engineering, motivates my application for this role. The opportunity to contribute to cutting-edge research and product development in a high-growth startup like Atomionics is incredibly exciting to me._x000D_
+_x000D_
+In terms of technical skills, I bring a robust foundation in Python, utilizing libraries such as NumPy and Matplotlib for advanced data visualization. Additionally, my proficiency in Java includes developing systems following the MVC pattern, emphasizing CRUD operations and user management. Furthermore, my experience in C has equipped me with the ability to implement embedded systems, focusing on the seamless integration of hardware and software components._x000D_
+_x000D_
+Complementing my technical abilities are my soft skills, including collaborative teamwork, active listening, and strong interpersonal communication. I excel in critical thinking and problem-solving, ensuring tasks are completed with precision and efficiency. My commitment to accuracy and attention to detail enables me to tackle challenges effectively, contributing positively to team dynamics._x000D_
+_x000D_
+I am enthusiastic about the prospect of working with Atomionics to gain valuable insights into deep tech research and product development within the quantum technology space. I am eager to leverage my skills and contribute meaningfully to your team. Thank you for considering my application._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Software Engineer Position at Monstyr Pte Ltd_x000D_
+    <t>Subject: Application for Software Engineering (Python) Internship at Atomionics_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I am currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, now in my second year. I came across the Software Engineer position at Monstyr Pte Ltd on Glints.com, and I am writing to express my keen interest in joining your team._x000D_
-_x000D_
-My motivation for applying stems from a strong desire to learn from experienced engineers, coupled with a personal aspiration to follow in my father's footsteps, who holds a master's degree in engineering. My technical background includes proficiency in Python, where I've leveraged libraries like NumPy and Matplotlib for enhanced data visualization, as well as Java, where I've developed systems following the MVC pattern. Additionally, I have experience in C, particularly in embedded systems design and integration._x000D_
-_x000D_
-In terms of soft skills, I excel in collaborative teamwork, with a knack for active listening and effective interpersonal communication. I bring a critical and analytical thinking approach to problem-solving, ensuring tasks are completed with precision and accuracy. My goal is to contribute effectively to a dynamic team environment, leveraging both my technical expertise and soft skills to drive impactful outcomes._x000D_
-_x000D_
-I am excited about the opportunity to contribute to Monstyr's mission of creating O2O synergy through innovative solutions. The chance to work across the stack, from frontend to backend, on a public-facing web/mobile app aligns perfectly with my career aspirations. I am eager to tackle the challenges and learning opportunities that come with being part of a startup in its early stages, and I am committed to delivering high-quality results._x000D_
-_x000D_
-Thank you for considering my application. I am looking forward to the possibility of discussing how my skills and experiences align with the needs of your team further. Please find my expected salary indicated in my attached resume. _x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I am currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, in my second year. I recently came across the opportunity for the Software Engineering (Python) Internship at Atomionics through Glints.com. What attracted me most to this role is not only my strong desire to learn from experienced engineers but also the opportunity to follow in my father's footsteps, who holds a master's in engineering._x000D_
+_x000D_
+My technical background includes proficient skills in Python, where I have experience in utilizing libraries such as NumPy and Matplotlib for enhanced data visualization. Additionally, I am skilled in Java, having developed systems following the MVC pattern, and proficient in C for embedded systems design and integration. My exposure to electro-mechanical functionalities and data gathering aligns well with the responsibilities of the front-end and back-end aspects of the role at Atomionics._x000D_
+_x000D_
+In terms of soft skills, I excel in collaborative teamwork, actively listening to others' perspectives while effectively communicating my own. I possess strong critical thinking abilities, enabling me to solve problems analytically and make well-informed decisions. With a keen eye for detail, I ensure tasks are completed accurately and efficiently, contributing to overall project success._x000D_
+_x000D_
+I am genuinely excited about the opportunity to contribute to Atomionics and further develop my skills in software engineering within the realm of quantum technology. The chance to work on cutting-edge projects and learn from a dynamic team is something I am eager to embrace. I am confident that my technical expertise and soft skills make me a strong fit for this role._x000D_
+_x000D_
+Thank you for considering my application. I look forward to the possibility of discussing how I can contribute to Atomionics further. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -489,7 +493,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="168.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="168" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -497,17 +501,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -517,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>

--- a/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
+++ b/InAuto_Project_2200589F_2202465G/InternshipEmails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78df99500250e0aa/Documents/GitHub/InAuto/InAuto_Project_2200589F_2202465G/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8303F5F6-A23D-4EE5-B80D-38E57858E74A}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{C36450E1-70C5-4284-8724-A0A78D84726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C1F21CC-EA94-49A2-ADB5-610A9473772F}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A8753D73-CDB8-4E0C-8DDE-BB08DD8360D8}"/>
   </bookViews>
@@ -41,21 +41,21 @@
     <t>Email Applications</t>
   </si>
   <si>
-    <t>Subject: Application for Front-End Developer Internship at Aevice Health_x000D_
+    <t>Subject: Application for Front-End Developer/Software Intern Position at Aevice Health_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I am currently a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Front-End Developer Internship opportunity at Aevice Health on Glints.com, and I am writing to express my strong interest in joining your team._x000D_
-_x000D_
-What drew me to Aevice Health is its commitment to innovation in healthcare technology, coupled with a culture that encourages creativity and ownership. As someone with a deep-rooted passion for learning and a desire to follow in my father's footsteps, who holds a master's in engineering, I am eager to contribute to Aevice Health's mission of improving the lives of patients with chronic respiratory diseases._x000D_
-_x000D_
-With a solid foundation in programming languages such as Python, Java, and C, I have experience in developing systems, implementing embedded systems, and utilizing libraries for data visualization. Moreover, my exposure to collaborative teamwork has honed my communication and problem-solving skills, ensuring tasks are completed with precision and efficiency._x000D_
-_x000D_
-I am particularly excited about the opportunity to translate UI/UX wireframes into front-end code, develop responsive web and mobile applications, and contribute to enhancing app usability through micro-interactions and animations. I am confident that my technical skills, coupled with my ability to work effectively in a team, make me a strong candidate for this role._x000D_
-_x000D_
-I am available for a flexible internship period from June to December 2024 and have included a link to my GitHub profile in my application. I am eager to gain hands-on experience in the full development lifecycle and further develop my skills in mobile application development._x000D_
-_x000D_
-Thank you for considering my application. I look forward to the opportunity to discuss how my skills and experiences align with the needs of Aevice Health. _x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I came across the Front-End Developer/Software Intern position at Aevice Health on Glints.com and I am writing to express my keen interest in joining your team._x000D_
+_x000D_
+My motivation to apply stems from a strong desire to learn from experienced engineers and to follow in my father's footsteps, who holds a master's degree in engineering. Having honed my technical skills through various projects, I am eager to apply them in a dynamic and innovative environment like Aevice Health._x000D_
+_x000D_
+With a solid foundation in Python, Java, and C, I have experience in developing systems, implementing CRUD functionalities, and working on embedded systems. Additionally, my proficiency in Python includes utilizing libraries such as NumPy and Matplotlib for data visualization. These technical skills, combined with my ability to think critically and analytically, enable me to approach problems systematically and ensure tasks are completed with precision._x000D_
+_x000D_
+Moreover, my soft skills complement my technical abilities. I excel in collaborative teamwork, actively listening to others' perspectives and effectively communicating my ideas. I thrive in environments that require problem-solving and decision-making, leveraging my analytical skills to drive efficient solutions._x000D_
+_x000D_
+I am particularly drawn to Aevice Health's commitment to innovation and its focus on developing solutions for real-world problems. I am excited about the opportunity to contribute to the development of mobile and web applications, gain insights into the full software development lifecycle, and further expand my skills in a supportive and dynamic environment._x000D_
+_x000D_
+Thank you for considering my application. I am available for a flexible start/end date and have included my GitHub profile for your reference. I look forward to the possibility of discussing how my skills and experiences align with the goals of Aevice Health._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -65,51 +65,51 @@
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I am writing to express my interest in the Singapore - Senior Engineering Lead (Full-Remote) position at Aha AI, as found on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. My passion for engineering stems from my father's influence, who holds a master's degree in engineering, igniting in me a strong desire to learn from experienced professionals in the field._x000D_
-_x000D_
-With a solid foundation in technical skills, I bring proficiency in Python, leveraging libraries like NumPy and Matplotlib for data visualization, Java for developing systems adhering to the MVC pattern, and C for embedded systems integration. Moreover, my collaborative nature and adeptness in active listening and communication complement my technical acumen, ensuring seamless teamwork and problem-solving._x000D_
-_x000D_
-My experience in collaborative teamwork, combined with critical thinking and analytical prowess, equips me to contribute effectively to Aha AI's innovative projects. I am committed to delivering tasks with precision and accuracy, aligning with Aha AI's culture of practicality and creativity._x000D_
-_x000D_
-Thank you for considering my application. I am eager to bring my skills and enthusiasm to Aha AI's dynamic team. _x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, and I recently came across the Senior Engineering Lead position at Aha AI on Glints.com. As a current student pursuing a Diploma in Computer Engineering at Temasek Polytechnic, with a keen interest in advancing my skills under the guidance of experienced engineers, I am excited to express my interest in joining your team._x000D_
+_x000D_
+The opportunity to learn from seasoned professionals and contribute to innovative projects resonates deeply with me, as I aspire to follow in my father's footsteps, who holds a master's degree in engineering. My technical expertise spans Python, where I've utilized libraries like NumPy and Matplotlib for data visualization, Java for developing systems following the MVC pattern, and C for implementing embedded systems, focusing on seamless hardware-software integration._x000D_
+_x000D_
+In addition to my technical skills, I bring a strong foundation in collaborative teamwork, honed through my experiences in group projects. My active listening and interpersonal communication skills complement my ability to think critically and analytically, ensuring tasks are executed with precision and efficiency._x000D_
+_x000D_
+I am confident that my blend of technical proficiency and soft skills will enable me to thrive in the fast-paced environment at Aha AI, contributing positively to the team and the company's objectives. Thank you for considering my application. I look forward to the opportunity to further discuss how my skills and experiences align with the needs of your team._x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Remote Software Engineer Role at Atomionics_x000D_
+    <t>Subject: Application for Remote Software Engineer Position at Atomionics_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, Year 2. I recently came across the opportunity for the Remote Software Engineer position at Atomionics through Glints.com, and I am writing to express my strong interest in the role._x000D_
-_x000D_
-What particularly excites me about this position is the opportunity to learn from experienced engineers and contribute to cutting-edge technology, especially in the realm of quantum sensors. My passion for software engineering stems from a desire to follow in my father's footsteps, who has his masters in engineering, and I am eager to immerse myself in a dynamic environment where innovation thrives._x000D_
-_x000D_
-With a solid foundation in Python, Java, and C programming languages, I have honed my skills through hands-on projects. In Python, I have experience importing libraries like NumPy and Matplotlib for advanced data visualization, while in Java, I have developed systems following the MVC pattern. Additionally, my proficiency in C extends to embedded systems, focusing on hardware-software integration._x000D_
-_x000D_
-Beyond technical expertise, I bring to the table strong collaborative teamwork skills, coupled with active listening and effective communication abilities. I approach problem-solving with a critical and analytical mindset, ensuring tasks are completed with precision and efficiency._x000D_
-_x000D_
-I am eager to contribute my skills to Atomionics, where I see an opportunity to learn and grow while making meaningful contributions to the advancement of quantum technology. I am confident that my technical proficiency and soft skills make me a strong fit for this role._x000D_
-_x000D_
-Thank you for considering my application. I am looking forward to the possibility of discussing how I can contribute to Atomionics further._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, in my second year. I discovered the Remote Software Engineer position at Atomionics through Glints.com, and I am writing to express my strong interest in joining your team. _x000D_
+_x000D_
+What intrigues me most about this opportunity is the chance to learn from experienced engineers and contribute to cutting-edge quantum technology. Following in my father's footsteps, who holds a master's in engineering, I am deeply passionate about delving into deep tech research and product development. My technical skills, particularly in Python, Java, and C, combined with my desire to absorb knowledge from seasoned professionals, make me a perfect fit for this role._x000D_
+_x000D_
+In terms of technical abilities, I have substantial experience in Python, utilizing libraries such as NumPy and Matplotlib for data visualization. Additionally, my proficiency in Java extends to developing systems following the MVC pattern. Furthermore, my expertise in C includes embedded systems design and integration, emphasizing the fusion of hardware and software components. _x000D_
+_x000D_
+Moreover, my soft skills complement my technical prowess. I excel in collaborative teamwork, possessing strong active listening and interpersonal communication skills. My critical thinking and analytical abilities enable me to solve problems effectively, ensuring tasks are completed with precision and accuracy._x000D_
+_x000D_
+I am eager to contribute to Atomionics' mission of advancing quantum technology and am excited about the opportunity to develop robust applications for translational research. I am confident that my blend of technical expertise and soft skills will make me a valuable asset to your team._x000D_
+_x000D_
+Thank you for considering my application. I look forward to the possibility of discussing how my skills and experiences align with Atomionics' objectives. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
   </si>
   <si>
-    <t>Subject: Application for Electronics Engineering Internship Position at Atomionics_x000D_
+    <t>Subject: Application for Electronics Engineering Internship at Atomionics_x000D_
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. I am writing to express my keen interest in the Electronics Engineering Internship position at Atomionics, as advertised on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, in my second year of study._x000D_
-_x000D_
-My fascination with electronics and a strong desire to learn from experienced engineers, coupled with a personal connection to the field through my father, who holds a Master's in Engineering, motivates my application for this role. The opportunity to contribute to cutting-edge research and product development in a high-growth startup like Atomionics is incredibly exciting to me._x000D_
-_x000D_
-In terms of technical skills, I bring a robust foundation in Python, utilizing libraries such as NumPy and Matplotlib for advanced data visualization. Additionally, my proficiency in Java includes developing systems following the MVC pattern, emphasizing CRUD operations and user management. Furthermore, my experience in C has equipped me with the ability to implement embedded systems, focusing on the seamless integration of hardware and software components._x000D_
-_x000D_
-Complementing my technical abilities are my soft skills, including collaborative teamwork, active listening, and strong interpersonal communication. I excel in critical thinking and problem-solving, ensuring tasks are completed with precision and efficiency. My commitment to accuracy and attention to detail enables me to tackle challenges effectively, contributing positively to team dynamics._x000D_
-_x000D_
-I am enthusiastic about the prospect of working with Atomionics to gain valuable insights into deep tech research and product development within the quantum technology space. I am eager to leverage my skills and contribute meaningfully to your team. Thank you for considering my application._x000D_
+I hope this email finds you well. My name is Chuang Kai Siang, a second-year student pursuing a Diploma in Computer Engineering at Temasek Polytechnic. I recently came across the Electronics Engineering Internship opportunity at Atomionics through Glints.com and was immediately drawn to the prospect of contributing to cutting-edge research in quantum technology. My main motivation stems from a strong desire to learn from experienced engineers and to follow in my father's footsteps, who holds a master's degree in engineering._x000D_
+_x000D_
+My technical skills include proficiency in Python, where I have leveraged libraries such as NumPy and Matplotlib for enhanced data visualization. Additionally, I have experience in Java, developing systems following the MVC pattern, and in C, focusing on the integration of hardware and software in embedded systems. These skills have equipped me to engage with various aspects of electronic circuit design and firmware programming, aligning closely with the responsibilities outlined for the internship role at Atomionics._x000D_
+_x000D_
+On the softer side, I bring to the table a collaborative mindset, honed through experiences in teamwork where active listening and effective communication were paramount. My ability to think critically and analytically enables me to approach problem-solving with precision, ensuring tasks are completed accurately and efficiently. These qualities, coupled with a keen eye for detail, align well with the collaborative environment fostered at Atomionics._x000D_
+_x000D_
+I am particularly excited about the opportunity to delve into deep tech research, contribute to product development, and engage in translational research at Atomionics. The prospect of working alongside talented physicists and engineers while gaining exposure to state-of-the-art quantum technology is truly inspiring. Furthermore, the emphasis on personal growth, demonstrated through initiatives like the book/hobby project allowance, resonates with my commitment to continuous learning and development._x000D_
+_x000D_
+Thank you for considering my application. I am eager to bring my blend of technical expertise and soft skills to the team at Atomionics and contribute meaningfully to your projects. I look forward to the possibility of discussing how my background and aspirations align with the goals of Atomionics. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -119,15 +119,15 @@
 _x000D_
 Dear Hiring Manager,_x000D_
 _x000D_
-I hope this email finds you well. My name is Chuang Kai Siang, and I am currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic, in my second year. I recently came across the opportunity for the Software Engineering (Python) Internship at Atomionics through Glints.com. What attracted me most to this role is not only my strong desire to learn from experienced engineers but also the opportunity to follow in my father's footsteps, who holds a master's in engineering._x000D_
-_x000D_
-My technical background includes proficient skills in Python, where I have experience in utilizing libraries such as NumPy and Matplotlib for enhanced data visualization. Additionally, I am skilled in Java, having developed systems following the MVC pattern, and proficient in C for embedded systems design and integration. My exposure to electro-mechanical functionalities and data gathering aligns well with the responsibilities of the front-end and back-end aspects of the role at Atomionics._x000D_
-_x000D_
-In terms of soft skills, I excel in collaborative teamwork, actively listening to others' perspectives while effectively communicating my own. I possess strong critical thinking abilities, enabling me to solve problems analytically and make well-informed decisions. With a keen eye for detail, I ensure tasks are completed accurately and efficiently, contributing to overall project success._x000D_
-_x000D_
-I am genuinely excited about the opportunity to contribute to Atomionics and further develop my skills in software engineering within the realm of quantum technology. The chance to work on cutting-edge projects and learn from a dynamic team is something I am eager to embrace. I am confident that my technical expertise and soft skills make me a strong fit for this role._x000D_
-_x000D_
-Thank you for considering my application. I look forward to the possibility of discussing how I can contribute to Atomionics further. _x000D_
+I am writing to express my enthusiasm for the Software Engineering (Python) Internship opportunity at Atomionics, as discovered on Glints.com. My name is Chuang Kai Siang, currently pursuing a Diploma in Computer Engineering at Temasek Polytechnic in my second year. I am particularly drawn to this position due to my strong desire to learn from experienced engineers, inspired by my father who holds a master's degree in engineering._x000D_
+_x000D_
+My technical skills include proficiency in Python, where I have utilized libraries like NumPy and Matplotlib for enhanced data visualization. Additionally, I have hands-on experience with Java, developing systems following the MVC pattern, and with C, focusing on embedded systems design and integration. These experiences have equipped me with the ability to tackle diverse challenges in software development, from data processing to hardware-software integration._x000D_
+_x000D_
+In terms of soft skills, I excel in collaborative teamwork, leveraging strong interpersonal communication and active listening abilities. My critical thinking and analytical skills enable me to solve problems efficiently, ensuring tasks are completed with precision and accuracy. I am committed to continuous learning and growth, traits that align well with Atomionics' innovative and dynamic environment._x000D_
+_x000D_
+I am excited about the opportunity to contribute to Atomionics' cutting-edge projects in quantum technology while further developing my skills in software engineering. I am fully committed to dedicating myself to a minimum internship duration of 3 months, preferably extending to 6 months, and residing in Singapore as per your requirements._x000D_
+_x000D_
+Thank you for considering my application. I am eager to bring my technical expertise and enthusiasm for learning to Atomionics. _x000D_
 _x000D_
 Best Regards,_x000D_
 Chuang Kai Siang</t>
@@ -493,7 +493,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="168" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="166.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,17 +511,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="360" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="360" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
